--- a/doc/SampleData/Employees/Employees.xlsx
+++ b/doc/SampleData/Employees/Employees.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tawatana\Documents\荒井克仁\デザイン・アジャイル研修\アジャイル演習\Git\OrandaYa\doc\SampleData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tawatana\Documents\荒井克仁\デザイン・アジャイル研修\アジャイル演習\Git\OrandaYa\doc\SampleData\Employees\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,6 +17,7 @@
     <sheet name="社員一覧" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">employees!$A$1:$K$201</definedName>
     <definedName name="personal_infomation" localSheetId="2">社員一覧!$A$1:$G$201</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2843" uniqueCount="1000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2643" uniqueCount="1000">
   <si>
     <t>入社年</t>
     <rPh sb="0" eb="2">
@@ -3547,9 +3548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
@@ -3597,2178 +3596,2178 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2">
+        <v>1988</v>
+      </c>
+      <c r="H2" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>676</v>
+      </c>
+      <c r="C3" t="s">
+        <v>677</v>
+      </c>
+      <c r="D3" t="s">
+        <v>678</v>
+      </c>
+      <c r="E3" t="s">
+        <v>679</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>2001</v>
+      </c>
+      <c r="H3" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>850</v>
+      </c>
+      <c r="C4" t="s">
+        <v>851</v>
+      </c>
+      <c r="D4" t="s">
+        <v>852</v>
+      </c>
+      <c r="E4" t="s">
+        <v>853</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4">
+        <v>1980</v>
+      </c>
+      <c r="H4" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>526</v>
+      </c>
+      <c r="C5" t="s">
+        <v>527</v>
+      </c>
+      <c r="D5" t="s">
+        <v>528</v>
+      </c>
+      <c r="E5" t="s">
+        <v>529</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>1984</v>
+      </c>
+      <c r="H5" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>690</v>
+      </c>
+      <c r="C6" t="s">
+        <v>691</v>
+      </c>
+      <c r="D6" t="s">
+        <v>692</v>
+      </c>
+      <c r="E6" t="s">
+        <v>693</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6">
+        <v>2017</v>
+      </c>
+      <c r="H6" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>635</v>
+      </c>
+      <c r="C7" t="s">
+        <v>636</v>
+      </c>
+      <c r="D7" t="s">
+        <v>637</v>
+      </c>
+      <c r="E7" t="s">
+        <v>638</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <v>1990</v>
+      </c>
+      <c r="H7" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8">
+        <v>1977</v>
+      </c>
+      <c r="H8" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>480</v>
+      </c>
+      <c r="C9" t="s">
+        <v>481</v>
+      </c>
+      <c r="D9" t="s">
+        <v>482</v>
+      </c>
+      <c r="E9" t="s">
+        <v>483</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9">
+        <v>1978</v>
+      </c>
+      <c r="H9" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B10" t="s">
+        <v>445</v>
+      </c>
+      <c r="C10" t="s">
+        <v>446</v>
+      </c>
+      <c r="D10" t="s">
+        <v>447</v>
+      </c>
+      <c r="E10" t="s">
+        <v>448</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10">
+        <v>2010</v>
+      </c>
+      <c r="H10" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B11" t="s">
+        <v>465</v>
+      </c>
+      <c r="C11" t="s">
+        <v>466</v>
+      </c>
+      <c r="D11" t="s">
+        <v>467</v>
+      </c>
+      <c r="E11" t="s">
+        <v>468</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11">
+        <v>1982</v>
+      </c>
+      <c r="H11" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B12" t="s">
+        <v>791</v>
+      </c>
+      <c r="C12" t="s">
+        <v>844</v>
+      </c>
+      <c r="D12" t="s">
+        <v>793</v>
+      </c>
+      <c r="E12" t="s">
+        <v>448</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12">
+        <v>1986</v>
+      </c>
+      <c r="H12" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>927</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>928</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13">
+        <v>2005</v>
+      </c>
+      <c r="H13" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2">
+      <c r="B14" t="s">
+        <v>762</v>
+      </c>
+      <c r="C14" t="s">
+        <v>763</v>
+      </c>
+      <c r="D14" t="s">
+        <v>764</v>
+      </c>
+      <c r="E14" t="s">
+        <v>716</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14">
+        <v>2014</v>
+      </c>
+      <c r="H14" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>391</v>
+      </c>
+      <c r="C15" t="s">
+        <v>392</v>
+      </c>
+      <c r="D15" t="s">
+        <v>393</v>
+      </c>
+      <c r="E15" t="s">
+        <v>394</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15">
+        <v>2006</v>
+      </c>
+      <c r="H15" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C16" t="s">
+        <v>291</v>
+      </c>
+      <c r="D16" t="s">
+        <v>292</v>
+      </c>
+      <c r="E16" t="s">
+        <v>293</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16">
+        <v>2004</v>
+      </c>
+      <c r="H16" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>243</v>
+      </c>
+      <c r="C17" t="s">
+        <v>244</v>
+      </c>
+      <c r="D17" t="s">
+        <v>245</v>
+      </c>
+      <c r="E17" t="s">
+        <v>246</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17">
+        <v>2020</v>
+      </c>
+      <c r="H17" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>661</v>
+      </c>
+      <c r="C18" t="s">
+        <v>662</v>
+      </c>
+      <c r="D18" t="s">
+        <v>663</v>
+      </c>
+      <c r="E18" t="s">
+        <v>664</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18">
+        <v>1982</v>
+      </c>
+      <c r="H18" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19">
         <v>1996</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H19" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B20" t="s">
+        <v>581</v>
+      </c>
+      <c r="C20" t="s">
+        <v>582</v>
+      </c>
+      <c r="D20" t="s">
+        <v>583</v>
+      </c>
+      <c r="E20" t="s">
+        <v>584</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20">
+        <v>2015</v>
+      </c>
+      <c r="H20" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3">
+      <c r="B21" t="s">
+        <v>260</v>
+      </c>
+      <c r="C21" t="s">
+        <v>261</v>
+      </c>
+      <c r="D21" t="s">
+        <v>262</v>
+      </c>
+      <c r="E21" t="s">
+        <v>263</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21">
         <v>1991</v>
       </c>
-      <c r="H3" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A4" t="s">
+      <c r="H21" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" t="s">
+        <v>172</v>
+      </c>
+      <c r="D22" t="s">
+        <v>173</v>
+      </c>
+      <c r="E22" t="s">
+        <v>174</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22">
+        <v>1989</v>
+      </c>
+      <c r="H22" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>504</v>
+      </c>
+      <c r="C23" t="s">
+        <v>505</v>
+      </c>
+      <c r="D23" t="s">
+        <v>506</v>
+      </c>
+      <c r="E23" t="s">
+        <v>507</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23">
+        <v>2015</v>
+      </c>
+      <c r="H23" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B24" t="s">
+        <v>309</v>
+      </c>
+      <c r="C24" t="s">
+        <v>310</v>
+      </c>
+      <c r="D24" t="s">
+        <v>311</v>
+      </c>
+      <c r="E24" t="s">
+        <v>312</v>
+      </c>
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24">
+        <v>1987</v>
+      </c>
+      <c r="H24" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B25" t="s">
+        <v>372</v>
+      </c>
+      <c r="C25" t="s">
+        <v>373</v>
+      </c>
+      <c r="D25" t="s">
+        <v>374</v>
+      </c>
+      <c r="E25" t="s">
+        <v>375</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25">
+        <v>2022</v>
+      </c>
+      <c r="H25" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B26" t="s">
+        <v>860</v>
+      </c>
+      <c r="C26" t="s">
+        <v>861</v>
+      </c>
+      <c r="D26" t="s">
+        <v>311</v>
+      </c>
+      <c r="E26" t="s">
+        <v>862</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26">
+        <v>1979</v>
+      </c>
+      <c r="H26" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="E4" t="s">
+      <c r="B27" t="s">
+        <v>325</v>
+      </c>
+      <c r="C27" t="s">
+        <v>326</v>
+      </c>
+      <c r="D27" t="s">
+        <v>327</v>
+      </c>
+      <c r="E27" t="s">
+        <v>328</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27">
+        <v>2023</v>
+      </c>
+      <c r="H27" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4">
-        <v>1986</v>
-      </c>
-      <c r="H4" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A5" t="s">
+      <c r="B28" t="s">
+        <v>220</v>
+      </c>
+      <c r="C28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D28" t="s">
+        <v>222</v>
+      </c>
+      <c r="E28" t="s">
+        <v>223</v>
+      </c>
+      <c r="F28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28">
+        <v>1994</v>
+      </c>
+      <c r="H28" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>490</v>
+      </c>
+      <c r="C29" t="s">
+        <v>491</v>
+      </c>
+      <c r="D29" t="s">
+        <v>492</v>
+      </c>
+      <c r="E29" t="s">
+        <v>375</v>
+      </c>
+      <c r="F29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29">
+        <v>1991</v>
+      </c>
+      <c r="H29" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5">
-        <v>2024</v>
-      </c>
-      <c r="H5" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6">
-        <v>1994</v>
-      </c>
-      <c r="H6" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7">
-        <v>1975</v>
-      </c>
-      <c r="H7" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8">
-        <v>2012</v>
-      </c>
-      <c r="H8" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9">
-        <v>2010</v>
-      </c>
-      <c r="H9" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10">
-        <v>1977</v>
-      </c>
-      <c r="H10" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11">
-        <v>1978</v>
-      </c>
-      <c r="H11" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12">
-        <v>2002</v>
-      </c>
-      <c r="H12" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13">
-        <v>2010</v>
-      </c>
-      <c r="H13" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14">
-        <v>1993</v>
-      </c>
-      <c r="H14" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" t="s">
-        <v>92</v>
-      </c>
-      <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15">
-        <v>2008</v>
-      </c>
-      <c r="H15" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A16" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16">
-        <v>1987</v>
-      </c>
-      <c r="H16" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A17" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" t="s">
-        <v>104</v>
-      </c>
-      <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17">
-        <v>2015</v>
-      </c>
-      <c r="H17" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" t="s">
-        <v>109</v>
-      </c>
-      <c r="E18" t="s">
-        <v>110</v>
-      </c>
-      <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18">
-        <v>1977</v>
-      </c>
-      <c r="H18" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A19" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" t="s">
-        <v>114</v>
-      </c>
-      <c r="E19" t="s">
-        <v>115</v>
-      </c>
-      <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19">
-        <v>1988</v>
-      </c>
-      <c r="H19" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A20" t="s">
-        <v>117</v>
-      </c>
-      <c r="B20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" t="s">
-        <v>119</v>
-      </c>
-      <c r="D20" t="s">
-        <v>120</v>
-      </c>
-      <c r="E20" t="s">
-        <v>121</v>
-      </c>
-      <c r="F20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20">
-        <v>2024</v>
-      </c>
-      <c r="H20" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" t="s">
-        <v>124</v>
-      </c>
-      <c r="E21" t="s">
-        <v>125</v>
-      </c>
-      <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21">
-        <v>2021</v>
-      </c>
-      <c r="H21" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A22" t="s">
-        <v>127</v>
-      </c>
-      <c r="B22" t="s">
-        <v>128</v>
-      </c>
-      <c r="C22" t="s">
-        <v>129</v>
-      </c>
-      <c r="D22" t="s">
-        <v>130</v>
-      </c>
-      <c r="E22" t="s">
-        <v>131</v>
-      </c>
-      <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22">
-        <v>1997</v>
-      </c>
-      <c r="H22" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A23" t="s">
-        <v>133</v>
-      </c>
-      <c r="B23" t="s">
-        <v>134</v>
-      </c>
-      <c r="C23" t="s">
-        <v>135</v>
-      </c>
-      <c r="D23" t="s">
-        <v>136</v>
-      </c>
-      <c r="E23" t="s">
-        <v>137</v>
-      </c>
-      <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23">
-        <v>2009</v>
-      </c>
-      <c r="H23" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A24" t="s">
-        <v>126</v>
-      </c>
-      <c r="B24" t="s">
-        <v>139</v>
-      </c>
-      <c r="C24" t="s">
-        <v>140</v>
-      </c>
-      <c r="D24" t="s">
-        <v>141</v>
-      </c>
-      <c r="E24" t="s">
-        <v>142</v>
-      </c>
-      <c r="F24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24">
-        <v>2024</v>
-      </c>
-      <c r="H24" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A25" t="s">
-        <v>143</v>
-      </c>
-      <c r="B25" t="s">
-        <v>144</v>
-      </c>
-      <c r="C25" t="s">
-        <v>145</v>
-      </c>
-      <c r="D25" t="s">
-        <v>146</v>
-      </c>
-      <c r="E25" t="s">
-        <v>147</v>
-      </c>
-      <c r="F25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25">
-        <v>2006</v>
-      </c>
-      <c r="H25" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A26" t="s">
-        <v>149</v>
-      </c>
-      <c r="B26" t="s">
-        <v>150</v>
-      </c>
-      <c r="C26" t="s">
-        <v>151</v>
-      </c>
-      <c r="D26" t="s">
-        <v>152</v>
-      </c>
-      <c r="E26" t="s">
-        <v>153</v>
-      </c>
-      <c r="F26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26">
-        <v>1977</v>
-      </c>
-      <c r="H26" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A27" t="s">
-        <v>154</v>
-      </c>
-      <c r="B27" t="s">
-        <v>155</v>
-      </c>
-      <c r="C27" t="s">
-        <v>156</v>
-      </c>
-      <c r="D27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E27" t="s">
-        <v>158</v>
-      </c>
-      <c r="F27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27">
-        <v>1981</v>
-      </c>
-      <c r="H27" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A28" t="s">
-        <v>160</v>
-      </c>
-      <c r="B28" t="s">
-        <v>161</v>
-      </c>
-      <c r="C28" t="s">
-        <v>162</v>
-      </c>
-      <c r="D28" t="s">
-        <v>163</v>
-      </c>
-      <c r="E28" t="s">
-        <v>164</v>
-      </c>
-      <c r="F28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28">
-        <v>1979</v>
-      </c>
-      <c r="H28" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A29" t="s">
-        <v>166</v>
-      </c>
-      <c r="B29" t="s">
-        <v>167</v>
-      </c>
-      <c r="C29" t="s">
-        <v>168</v>
-      </c>
-      <c r="D29" t="s">
-        <v>169</v>
-      </c>
-      <c r="E29" t="s">
-        <v>170</v>
-      </c>
-      <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29">
-        <v>2021</v>
-      </c>
-      <c r="H29" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A30" t="s">
-        <v>105</v>
-      </c>
       <c r="B30" t="s">
-        <v>171</v>
+        <v>718</v>
       </c>
       <c r="C30" t="s">
-        <v>172</v>
+        <v>719</v>
       </c>
       <c r="D30" t="s">
-        <v>173</v>
+        <v>720</v>
       </c>
       <c r="E30" t="s">
-        <v>174</v>
+        <v>721</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G30">
-        <v>1989</v>
+        <v>2004</v>
       </c>
       <c r="H30" t="s">
         <v>959</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A31" t="s">
-        <v>176</v>
+      <c r="A31">
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>177</v>
+        <v>885</v>
       </c>
       <c r="C31" t="s">
-        <v>178</v>
+        <v>886</v>
       </c>
       <c r="D31" t="s">
-        <v>179</v>
+        <v>887</v>
       </c>
       <c r="E31" t="s">
+        <v>888</v>
+      </c>
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31">
+        <v>2018</v>
+      </c>
+      <c r="H31" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>342</v>
+      </c>
+      <c r="C32" t="s">
+        <v>343</v>
+      </c>
+      <c r="D32" t="s">
+        <v>344</v>
+      </c>
+      <c r="E32" t="s">
+        <v>345</v>
+      </c>
+      <c r="F32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32">
+        <v>2004</v>
+      </c>
+      <c r="H32" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>661</v>
+      </c>
+      <c r="C33" t="s">
+        <v>796</v>
+      </c>
+      <c r="D33" t="s">
+        <v>663</v>
+      </c>
+      <c r="E33" t="s">
+        <v>797</v>
+      </c>
+      <c r="F33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33">
+        <v>1996</v>
+      </c>
+      <c r="H33" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>709</v>
+      </c>
+      <c r="C34" t="s">
+        <v>710</v>
+      </c>
+      <c r="D34" t="s">
+        <v>711</v>
+      </c>
+      <c r="E34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34">
+        <v>2011</v>
+      </c>
+      <c r="H34" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>329</v>
+      </c>
+      <c r="C35" t="s">
+        <v>330</v>
+      </c>
+      <c r="D35" t="s">
+        <v>331</v>
+      </c>
+      <c r="E35" t="s">
+        <v>332</v>
+      </c>
+      <c r="F35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35">
+        <v>2021</v>
+      </c>
+      <c r="H35" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>268</v>
+      </c>
+      <c r="C36" t="s">
+        <v>269</v>
+      </c>
+      <c r="D36" t="s">
+        <v>270</v>
+      </c>
+      <c r="E36" t="s">
+        <v>271</v>
+      </c>
+      <c r="F36" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36">
+        <v>1995</v>
+      </c>
+      <c r="H36" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>824</v>
+      </c>
+      <c r="C37" t="s">
+        <v>825</v>
+      </c>
+      <c r="D37" t="s">
+        <v>826</v>
+      </c>
+      <c r="E37" t="s">
+        <v>827</v>
+      </c>
+      <c r="F37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37">
+        <v>1999</v>
+      </c>
+      <c r="H37" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>935</v>
+      </c>
+      <c r="C38" t="s">
+        <v>936</v>
+      </c>
+      <c r="D38" t="s">
+        <v>937</v>
+      </c>
+      <c r="E38" t="s">
+        <v>938</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38">
+        <v>1989</v>
+      </c>
+      <c r="H38" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>869</v>
+      </c>
+      <c r="C39" t="s">
+        <v>870</v>
+      </c>
+      <c r="D39" t="s">
+        <v>871</v>
+      </c>
+      <c r="E39" t="s">
+        <v>734</v>
+      </c>
+      <c r="F39" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39">
+        <v>2007</v>
+      </c>
+      <c r="H39" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>922</v>
+      </c>
+      <c r="C40" t="s">
+        <v>923</v>
+      </c>
+      <c r="D40" t="s">
+        <v>924</v>
+      </c>
+      <c r="E40" t="s">
+        <v>925</v>
+      </c>
+      <c r="F40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40">
+        <v>2006</v>
+      </c>
+      <c r="H40" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>410</v>
+      </c>
+      <c r="C41" t="s">
+        <v>411</v>
+      </c>
+      <c r="D41" t="s">
+        <v>412</v>
+      </c>
+      <c r="E41" t="s">
+        <v>413</v>
+      </c>
+      <c r="F41" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41">
+        <v>1980</v>
+      </c>
+      <c r="H41" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>264</v>
+      </c>
+      <c r="C42" t="s">
+        <v>265</v>
+      </c>
+      <c r="D42" t="s">
+        <v>266</v>
+      </c>
+      <c r="E42" t="s">
+        <v>267</v>
+      </c>
+      <c r="F42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42">
+        <v>2011</v>
+      </c>
+      <c r="H42" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>460</v>
+      </c>
+      <c r="C43" t="s">
+        <v>461</v>
+      </c>
+      <c r="D43" t="s">
+        <v>462</v>
+      </c>
+      <c r="E43" t="s">
+        <v>463</v>
+      </c>
+      <c r="F43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43">
+        <v>2006</v>
+      </c>
+      <c r="H43" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>382</v>
+      </c>
+      <c r="C44" t="s">
+        <v>383</v>
+      </c>
+      <c r="D44" t="s">
+        <v>384</v>
+      </c>
+      <c r="E44" t="s">
+        <v>385</v>
+      </c>
+      <c r="F44" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44">
+        <v>1988</v>
+      </c>
+      <c r="H44" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>671</v>
+      </c>
+      <c r="C45" t="s">
+        <v>672</v>
+      </c>
+      <c r="D45" t="s">
+        <v>673</v>
+      </c>
+      <c r="E45" t="s">
+        <v>674</v>
+      </c>
+      <c r="F45" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45">
+        <v>2006</v>
+      </c>
+      <c r="H45" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>314</v>
+      </c>
+      <c r="C46" t="s">
+        <v>315</v>
+      </c>
+      <c r="D46" t="s">
+        <v>316</v>
+      </c>
+      <c r="E46" t="s">
+        <v>317</v>
+      </c>
+      <c r="F46" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46">
+        <v>2022</v>
+      </c>
+      <c r="H46" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>917</v>
+      </c>
+      <c r="C47" t="s">
+        <v>918</v>
+      </c>
+      <c r="D47" t="s">
+        <v>919</v>
+      </c>
+      <c r="E47" t="s">
+        <v>920</v>
+      </c>
+      <c r="F47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47">
+        <v>1985</v>
+      </c>
+      <c r="H47" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>396</v>
+      </c>
+      <c r="C48" t="s">
+        <v>397</v>
+      </c>
+      <c r="D48" t="s">
+        <v>398</v>
+      </c>
+      <c r="E48" t="s">
+        <v>399</v>
+      </c>
+      <c r="F48" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48">
+        <v>1987</v>
+      </c>
+      <c r="H48" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>201</v>
+      </c>
+      <c r="C49" t="s">
+        <v>202</v>
+      </c>
+      <c r="D49" t="s">
+        <v>203</v>
+      </c>
+      <c r="E49" t="s">
+        <v>204</v>
+      </c>
+      <c r="F49" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49">
+        <v>2001</v>
+      </c>
+      <c r="H49" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>741</v>
+      </c>
+      <c r="C50" t="s">
+        <v>742</v>
+      </c>
+      <c r="D50" t="s">
+        <v>743</v>
+      </c>
+      <c r="E50" t="s">
+        <v>744</v>
+      </c>
+      <c r="F50" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50">
+        <v>1985</v>
+      </c>
+      <c r="H50" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>681</v>
+      </c>
+      <c r="C51" t="s">
+        <v>682</v>
+      </c>
+      <c r="D51" t="s">
+        <v>683</v>
+      </c>
+      <c r="E51" t="s">
+        <v>684</v>
+      </c>
+      <c r="F51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51">
+        <v>1977</v>
+      </c>
+      <c r="H51" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>440</v>
+      </c>
+      <c r="C52" t="s">
+        <v>441</v>
+      </c>
+      <c r="D52" t="s">
+        <v>442</v>
+      </c>
+      <c r="E52" t="s">
+        <v>443</v>
+      </c>
+      <c r="F52" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52">
+        <v>2012</v>
+      </c>
+      <c r="H52" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>590</v>
+      </c>
+      <c r="C53" t="s">
+        <v>591</v>
+      </c>
+      <c r="D53" t="s">
+        <v>592</v>
+      </c>
+      <c r="E53" t="s">
         <v>180</v>
       </c>
-      <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31">
-        <v>1983</v>
-      </c>
-      <c r="H31" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A32" t="s">
-        <v>182</v>
-      </c>
-      <c r="B32" t="s">
-        <v>183</v>
-      </c>
-      <c r="C32" t="s">
-        <v>184</v>
-      </c>
-      <c r="D32" t="s">
-        <v>185</v>
-      </c>
-      <c r="E32" t="s">
-        <v>186</v>
-      </c>
-      <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32">
-        <v>2005</v>
-      </c>
-      <c r="H32" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A33" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" t="s">
-        <v>188</v>
-      </c>
-      <c r="C33" t="s">
-        <v>189</v>
-      </c>
-      <c r="D33" t="s">
-        <v>190</v>
-      </c>
-      <c r="E33" t="s">
-        <v>191</v>
-      </c>
-      <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33">
-        <v>2024</v>
-      </c>
-      <c r="H33" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A34" t="s">
-        <v>192</v>
-      </c>
-      <c r="B34" t="s">
-        <v>193</v>
-      </c>
-      <c r="C34" t="s">
-        <v>194</v>
-      </c>
-      <c r="D34" t="s">
-        <v>195</v>
-      </c>
-      <c r="E34" t="s">
-        <v>196</v>
-      </c>
-      <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34">
-        <v>1988</v>
-      </c>
-      <c r="H34" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A35" t="s">
+      <c r="F53" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53">
+        <v>2023</v>
+      </c>
+      <c r="H53" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>377</v>
+      </c>
+      <c r="C54" t="s">
+        <v>890</v>
+      </c>
+      <c r="D54" t="s">
+        <v>379</v>
+      </c>
+      <c r="E54" t="s">
+        <v>891</v>
+      </c>
+      <c r="F54" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54">
+        <v>1981</v>
+      </c>
+      <c r="H54" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>401</v>
+      </c>
+      <c r="C55" t="s">
+        <v>402</v>
+      </c>
+      <c r="D55" t="s">
+        <v>403</v>
+      </c>
+      <c r="E55" t="s">
+        <v>228</v>
+      </c>
+      <c r="F55" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55">
+        <v>1999</v>
+      </c>
+      <c r="H55" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>811</v>
+      </c>
+      <c r="C56" t="s">
+        <v>812</v>
+      </c>
+      <c r="D56" t="s">
+        <v>813</v>
+      </c>
+      <c r="E56" t="s">
+        <v>814</v>
+      </c>
+      <c r="F56" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56">
+        <v>2001</v>
+      </c>
+      <c r="H56" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>352</v>
+      </c>
+      <c r="C57" t="s">
+        <v>612</v>
+      </c>
+      <c r="D57" t="s">
+        <v>354</v>
+      </c>
+      <c r="E57" t="s">
+        <v>613</v>
+      </c>
+      <c r="F57" t="s">
+        <v>21</v>
+      </c>
+      <c r="G57">
+        <v>1985</v>
+      </c>
+      <c r="H57" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>277</v>
+      </c>
+      <c r="C58" t="s">
+        <v>278</v>
+      </c>
+      <c r="D58" t="s">
+        <v>279</v>
+      </c>
+      <c r="E58" t="s">
+        <v>280</v>
+      </c>
+      <c r="F58" t="s">
+        <v>21</v>
+      </c>
+      <c r="G58">
+        <v>1996</v>
+      </c>
+      <c r="H58" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A59">
         <v>58</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B59" t="s">
+        <v>846</v>
+      </c>
+      <c r="C59" t="s">
+        <v>847</v>
+      </c>
+      <c r="D59" t="s">
+        <v>759</v>
+      </c>
+      <c r="E59" t="s">
+        <v>848</v>
+      </c>
+      <c r="F59" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59">
+        <v>1999</v>
+      </c>
+      <c r="H59" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>485</v>
+      </c>
+      <c r="C60" t="s">
+        <v>486</v>
+      </c>
+      <c r="D60" t="s">
+        <v>487</v>
+      </c>
+      <c r="E60" t="s">
+        <v>488</v>
+      </c>
+      <c r="F60" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60">
+        <v>2011</v>
+      </c>
+      <c r="H60" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>362</v>
+      </c>
+      <c r="C61" t="s">
+        <v>363</v>
+      </c>
+      <c r="D61" t="s">
+        <v>364</v>
+      </c>
+      <c r="E61" t="s">
+        <v>365</v>
+      </c>
+      <c r="F61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61">
+        <v>1997</v>
+      </c>
+      <c r="H61" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
         <v>197</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C62" t="s">
         <v>198</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D62" t="s">
         <v>199</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E62" t="s">
         <v>200</v>
       </c>
-      <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35">
+      <c r="F62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62">
         <v>1981</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H62" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A36" t="s">
-        <v>138</v>
-      </c>
-      <c r="B36" t="s">
-        <v>201</v>
-      </c>
-      <c r="C36" t="s">
-        <v>202</v>
-      </c>
-      <c r="D36" t="s">
-        <v>203</v>
-      </c>
-      <c r="E36" t="s">
-        <v>204</v>
-      </c>
-      <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>807</v>
+      </c>
+      <c r="C63" t="s">
+        <v>808</v>
+      </c>
+      <c r="D63" t="s">
+        <v>157</v>
+      </c>
+      <c r="E63" t="s">
+        <v>809</v>
+      </c>
+      <c r="F63" t="s">
+        <v>21</v>
+      </c>
+      <c r="G63">
+        <v>1993</v>
+      </c>
+      <c r="H63" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>48</v>
+      </c>
+      <c r="C64" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" t="s">
+        <v>50</v>
+      </c>
+      <c r="E64" t="s">
+        <v>51</v>
+      </c>
+      <c r="F64" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64">
+        <v>2012</v>
+      </c>
+      <c r="H64" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>367</v>
+      </c>
+      <c r="C65" t="s">
+        <v>368</v>
+      </c>
+      <c r="D65" t="s">
+        <v>369</v>
+      </c>
+      <c r="E65" t="s">
+        <v>370</v>
+      </c>
+      <c r="F65" t="s">
+        <v>21</v>
+      </c>
+      <c r="G65">
+        <v>1987</v>
+      </c>
+      <c r="H65" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>297</v>
+      </c>
+      <c r="C66" t="s">
+        <v>298</v>
+      </c>
+      <c r="D66" t="s">
+        <v>299</v>
+      </c>
+      <c r="E66" t="s">
+        <v>300</v>
+      </c>
+      <c r="F66" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66">
         <v>2001</v>
       </c>
-      <c r="H36" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A37" t="s">
-        <v>93</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="H66" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>333</v>
+      </c>
+      <c r="C67" t="s">
+        <v>334</v>
+      </c>
+      <c r="D67" t="s">
+        <v>335</v>
+      </c>
+      <c r="E67" t="s">
+        <v>336</v>
+      </c>
+      <c r="F67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67">
+        <v>1976</v>
+      </c>
+      <c r="H67" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
         <v>206</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C68" t="s">
         <v>207</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D68" t="s">
         <v>208</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E68" t="s">
         <v>209</v>
       </c>
-      <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37">
+      <c r="F68" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68">
         <v>2000</v>
-      </c>
-      <c r="H37" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A38" t="s">
-        <v>211</v>
-      </c>
-      <c r="B38" t="s">
-        <v>212</v>
-      </c>
-      <c r="C38" t="s">
-        <v>213</v>
-      </c>
-      <c r="D38" t="s">
-        <v>214</v>
-      </c>
-      <c r="E38" t="s">
-        <v>215</v>
-      </c>
-      <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38">
-        <v>1981</v>
-      </c>
-      <c r="H38" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A39" t="s">
-        <v>148</v>
-      </c>
-      <c r="B39" t="s">
-        <v>216</v>
-      </c>
-      <c r="C39" t="s">
-        <v>217</v>
-      </c>
-      <c r="D39" t="s">
-        <v>218</v>
-      </c>
-      <c r="E39" t="s">
-        <v>219</v>
-      </c>
-      <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39">
-        <v>1991</v>
-      </c>
-      <c r="H39" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A40" t="s">
-        <v>187</v>
-      </c>
-      <c r="B40" t="s">
-        <v>220</v>
-      </c>
-      <c r="C40" t="s">
-        <v>221</v>
-      </c>
-      <c r="D40" t="s">
-        <v>222</v>
-      </c>
-      <c r="E40" t="s">
-        <v>223</v>
-      </c>
-      <c r="F40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40">
-        <v>1994</v>
-      </c>
-      <c r="H40" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A41" t="s">
-        <v>224</v>
-      </c>
-      <c r="B41" t="s">
-        <v>225</v>
-      </c>
-      <c r="C41" t="s">
-        <v>226</v>
-      </c>
-      <c r="D41" t="s">
-        <v>227</v>
-      </c>
-      <c r="E41" t="s">
-        <v>228</v>
-      </c>
-      <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41">
-        <v>2016</v>
-      </c>
-      <c r="H41" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A42" t="s">
-        <v>229</v>
-      </c>
-      <c r="B42" t="s">
-        <v>230</v>
-      </c>
-      <c r="C42" t="s">
-        <v>172</v>
-      </c>
-      <c r="D42" t="s">
-        <v>231</v>
-      </c>
-      <c r="E42" t="s">
-        <v>174</v>
-      </c>
-      <c r="F42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42">
-        <v>1989</v>
-      </c>
-      <c r="H42" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A43" t="s">
-        <v>76</v>
-      </c>
-      <c r="B43" t="s">
-        <v>232</v>
-      </c>
-      <c r="C43" t="s">
-        <v>233</v>
-      </c>
-      <c r="D43" t="s">
-        <v>234</v>
-      </c>
-      <c r="E43" t="s">
-        <v>235</v>
-      </c>
-      <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43">
-        <v>1983</v>
-      </c>
-      <c r="H43" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A44" t="s">
-        <v>205</v>
-      </c>
-      <c r="B44" t="s">
-        <v>236</v>
-      </c>
-      <c r="C44" t="s">
-        <v>237</v>
-      </c>
-      <c r="D44" t="s">
-        <v>238</v>
-      </c>
-      <c r="E44" t="s">
-        <v>239</v>
-      </c>
-      <c r="F44" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44">
-        <v>2020</v>
-      </c>
-      <c r="H44" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A45" t="s">
-        <v>210</v>
-      </c>
-      <c r="B45" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" t="s">
-        <v>240</v>
-      </c>
-      <c r="D45" t="s">
-        <v>62</v>
-      </c>
-      <c r="E45" t="s">
-        <v>241</v>
-      </c>
-      <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45">
-        <v>2015</v>
-      </c>
-      <c r="H45" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A46" t="s">
-        <v>242</v>
-      </c>
-      <c r="B46" t="s">
-        <v>243</v>
-      </c>
-      <c r="C46" t="s">
-        <v>244</v>
-      </c>
-      <c r="D46" t="s">
-        <v>245</v>
-      </c>
-      <c r="E46" t="s">
-        <v>246</v>
-      </c>
-      <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46">
-        <v>2020</v>
-      </c>
-      <c r="H46" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A47" t="s">
-        <v>247</v>
-      </c>
-      <c r="B47" t="s">
-        <v>248</v>
-      </c>
-      <c r="C47" t="s">
-        <v>249</v>
-      </c>
-      <c r="D47" t="s">
-        <v>250</v>
-      </c>
-      <c r="E47" t="s">
-        <v>69</v>
-      </c>
-      <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47">
-        <v>1983</v>
-      </c>
-      <c r="H47" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A48" t="s">
-        <v>132</v>
-      </c>
-      <c r="B48" t="s">
-        <v>251</v>
-      </c>
-      <c r="C48" t="s">
-        <v>252</v>
-      </c>
-      <c r="D48" t="s">
-        <v>253</v>
-      </c>
-      <c r="E48" t="s">
-        <v>254</v>
-      </c>
-      <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48">
-        <v>2003</v>
-      </c>
-      <c r="H48" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49" t="s">
-        <v>255</v>
-      </c>
-      <c r="C49" t="s">
-        <v>256</v>
-      </c>
-      <c r="D49" t="s">
-        <v>257</v>
-      </c>
-      <c r="E49" t="s">
-        <v>258</v>
-      </c>
-      <c r="F49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49">
-        <v>2009</v>
-      </c>
-      <c r="H49" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A50" t="s">
-        <v>259</v>
-      </c>
-      <c r="B50" t="s">
-        <v>260</v>
-      </c>
-      <c r="C50" t="s">
-        <v>261</v>
-      </c>
-      <c r="D50" t="s">
-        <v>262</v>
-      </c>
-      <c r="E50" t="s">
-        <v>263</v>
-      </c>
-      <c r="F50" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50">
-        <v>1991</v>
-      </c>
-      <c r="H50" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A51" t="s">
-        <v>40</v>
-      </c>
-      <c r="B51" t="s">
-        <v>264</v>
-      </c>
-      <c r="C51" t="s">
-        <v>265</v>
-      </c>
-      <c r="D51" t="s">
-        <v>266</v>
-      </c>
-      <c r="E51" t="s">
-        <v>267</v>
-      </c>
-      <c r="F51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51">
-        <v>2011</v>
-      </c>
-      <c r="H51" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A52" t="s">
-        <v>87</v>
-      </c>
-      <c r="B52" t="s">
-        <v>268</v>
-      </c>
-      <c r="C52" t="s">
-        <v>269</v>
-      </c>
-      <c r="D52" t="s">
-        <v>270</v>
-      </c>
-      <c r="E52" t="s">
-        <v>271</v>
-      </c>
-      <c r="F52" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52">
-        <v>1995</v>
-      </c>
-      <c r="H52" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A53" t="s">
-        <v>272</v>
-      </c>
-      <c r="B53" t="s">
-        <v>273</v>
-      </c>
-      <c r="C53" t="s">
-        <v>274</v>
-      </c>
-      <c r="D53" t="s">
-        <v>275</v>
-      </c>
-      <c r="E53" t="s">
-        <v>276</v>
-      </c>
-      <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53">
-        <v>1997</v>
-      </c>
-      <c r="H53" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A54" t="s">
-        <v>22</v>
-      </c>
-      <c r="B54" t="s">
-        <v>277</v>
-      </c>
-      <c r="C54" t="s">
-        <v>278</v>
-      </c>
-      <c r="D54" t="s">
-        <v>279</v>
-      </c>
-      <c r="E54" t="s">
-        <v>280</v>
-      </c>
-      <c r="F54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54">
-        <v>1996</v>
-      </c>
-      <c r="H54" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A55" t="s">
-        <v>281</v>
-      </c>
-      <c r="B55" t="s">
-        <v>282</v>
-      </c>
-      <c r="C55" t="s">
-        <v>283</v>
-      </c>
-      <c r="D55" t="s">
-        <v>284</v>
-      </c>
-      <c r="E55" t="s">
-        <v>285</v>
-      </c>
-      <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55">
-        <v>1997</v>
-      </c>
-      <c r="H55" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A56" t="s">
-        <v>175</v>
-      </c>
-      <c r="B56" t="s">
-        <v>286</v>
-      </c>
-      <c r="C56" t="s">
-        <v>287</v>
-      </c>
-      <c r="D56" t="s">
-        <v>288</v>
-      </c>
-      <c r="E56" t="s">
-        <v>289</v>
-      </c>
-      <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56">
-        <v>2005</v>
-      </c>
-      <c r="H56" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A57" t="s">
-        <v>116</v>
-      </c>
-      <c r="B57" t="s">
-        <v>290</v>
-      </c>
-      <c r="C57" t="s">
-        <v>291</v>
-      </c>
-      <c r="D57" t="s">
-        <v>292</v>
-      </c>
-      <c r="E57" t="s">
-        <v>293</v>
-      </c>
-      <c r="F57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57">
-        <v>2004</v>
-      </c>
-      <c r="H57" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A58" t="s">
-        <v>99</v>
-      </c>
-      <c r="B58" t="s">
-        <v>294</v>
-      </c>
-      <c r="C58" t="s">
-        <v>295</v>
-      </c>
-      <c r="D58" t="s">
-        <v>296</v>
-      </c>
-      <c r="E58" t="s">
-        <v>263</v>
-      </c>
-      <c r="F58" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58">
-        <v>1998</v>
-      </c>
-      <c r="H58" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A59" t="s">
-        <v>28</v>
-      </c>
-      <c r="B59" t="s">
-        <v>297</v>
-      </c>
-      <c r="C59" t="s">
-        <v>298</v>
-      </c>
-      <c r="D59" t="s">
-        <v>299</v>
-      </c>
-      <c r="E59" t="s">
-        <v>300</v>
-      </c>
-      <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59">
-        <v>2001</v>
-      </c>
-      <c r="H59" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A60" t="s">
-        <v>301</v>
-      </c>
-      <c r="B60" t="s">
-        <v>302</v>
-      </c>
-      <c r="C60" t="s">
-        <v>303</v>
-      </c>
-      <c r="D60" t="s">
-        <v>304</v>
-      </c>
-      <c r="E60" t="s">
-        <v>305</v>
-      </c>
-      <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60">
-        <v>1995</v>
-      </c>
-      <c r="H60" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A61" t="s">
-        <v>306</v>
-      </c>
-      <c r="B61" t="s">
-        <v>139</v>
-      </c>
-      <c r="C61" t="s">
-        <v>307</v>
-      </c>
-      <c r="D61" t="s">
-        <v>141</v>
-      </c>
-      <c r="E61" t="s">
-        <v>308</v>
-      </c>
-      <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61">
-        <v>1992</v>
-      </c>
-      <c r="H61" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A62" t="s">
-        <v>181</v>
-      </c>
-      <c r="B62" t="s">
-        <v>309</v>
-      </c>
-      <c r="C62" t="s">
-        <v>310</v>
-      </c>
-      <c r="D62" t="s">
-        <v>311</v>
-      </c>
-      <c r="E62" t="s">
-        <v>312</v>
-      </c>
-      <c r="F62" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62">
-        <v>1987</v>
-      </c>
-      <c r="H62" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A63" t="s">
-        <v>313</v>
-      </c>
-      <c r="B63" t="s">
-        <v>314</v>
-      </c>
-      <c r="C63" t="s">
-        <v>315</v>
-      </c>
-      <c r="D63" t="s">
-        <v>316</v>
-      </c>
-      <c r="E63" t="s">
-        <v>317</v>
-      </c>
-      <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63">
-        <v>2022</v>
-      </c>
-      <c r="H63" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A64" t="s">
-        <v>159</v>
-      </c>
-      <c r="B64" t="s">
-        <v>318</v>
-      </c>
-      <c r="C64" t="s">
-        <v>319</v>
-      </c>
-      <c r="D64" t="s">
-        <v>320</v>
-      </c>
-      <c r="E64" t="s">
-        <v>321</v>
-      </c>
-      <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64">
-        <v>1993</v>
-      </c>
-      <c r="H64" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A65" t="s">
-        <v>322</v>
-      </c>
-      <c r="B65" t="s">
-        <v>323</v>
-      </c>
-      <c r="C65" t="s">
-        <v>319</v>
-      </c>
-      <c r="D65" t="s">
-        <v>324</v>
-      </c>
-      <c r="E65" t="s">
-        <v>321</v>
-      </c>
-      <c r="F65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65">
-        <v>2006</v>
-      </c>
-      <c r="H65" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A66" t="s">
-        <v>165</v>
-      </c>
-      <c r="B66" t="s">
-        <v>325</v>
-      </c>
-      <c r="C66" t="s">
-        <v>326</v>
-      </c>
-      <c r="D66" t="s">
-        <v>327</v>
-      </c>
-      <c r="E66" t="s">
-        <v>328</v>
-      </c>
-      <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66">
-        <v>2023</v>
-      </c>
-      <c r="H66" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A67" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67" t="s">
-        <v>329</v>
-      </c>
-      <c r="C67" t="s">
-        <v>330</v>
-      </c>
-      <c r="D67" t="s">
-        <v>331</v>
-      </c>
-      <c r="E67" t="s">
-        <v>332</v>
-      </c>
-      <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67">
-        <v>2021</v>
-      </c>
-      <c r="H67" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A68" t="s">
-        <v>64</v>
-      </c>
-      <c r="B68" t="s">
-        <v>333</v>
-      </c>
-      <c r="C68" t="s">
-        <v>334</v>
-      </c>
-      <c r="D68" t="s">
-        <v>335</v>
-      </c>
-      <c r="E68" t="s">
-        <v>336</v>
-      </c>
-      <c r="F68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68">
-        <v>1976</v>
       </c>
       <c r="H68" t="s">
         <v>967</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A69" t="s">
-        <v>337</v>
+      <c r="A69">
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>338</v>
+        <v>751</v>
       </c>
       <c r="C69" t="s">
-        <v>339</v>
+        <v>752</v>
       </c>
       <c r="D69" t="s">
-        <v>340</v>
+        <v>753</v>
       </c>
       <c r="E69" t="s">
-        <v>341</v>
+        <v>754</v>
       </c>
       <c r="F69" t="s">
         <v>14</v>
       </c>
       <c r="G69">
-        <v>2001</v>
+        <v>2019</v>
       </c>
       <c r="H69" t="s">
-        <v>987</v>
+        <v>967</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A70" t="s">
-        <v>46</v>
+      <c r="A70">
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>342</v>
+        <v>799</v>
       </c>
       <c r="C70" t="s">
-        <v>343</v>
+        <v>800</v>
       </c>
       <c r="D70" t="s">
-        <v>344</v>
+        <v>801</v>
       </c>
       <c r="E70" t="s">
-        <v>345</v>
+        <v>802</v>
       </c>
       <c r="F70" t="s">
         <v>14</v>
       </c>
       <c r="G70">
-        <v>2004</v>
+        <v>2019</v>
       </c>
       <c r="H70" t="s">
-        <v>959</v>
+        <v>967</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A71" t="s">
-        <v>346</v>
+      <c r="A71">
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>347</v>
+        <v>893</v>
       </c>
       <c r="C71" t="s">
-        <v>348</v>
+        <v>894</v>
       </c>
       <c r="D71" t="s">
-        <v>349</v>
+        <v>895</v>
       </c>
       <c r="E71" t="s">
-        <v>350</v>
+        <v>896</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G71">
-        <v>2002</v>
+        <v>1989</v>
       </c>
       <c r="H71" t="s">
-        <v>963</v>
+        <v>967</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A72" t="s">
-        <v>351</v>
+      <c r="A72">
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>352</v>
+        <v>630</v>
       </c>
       <c r="C72" t="s">
-        <v>353</v>
+        <v>631</v>
       </c>
       <c r="D72" t="s">
-        <v>354</v>
+        <v>632</v>
       </c>
       <c r="E72" t="s">
-        <v>355</v>
+        <v>633</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G72">
-        <v>1989</v>
+        <v>1980</v>
       </c>
       <c r="H72" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A73" t="s">
-        <v>356</v>
+      <c r="A73">
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>357</v>
+        <v>907</v>
       </c>
       <c r="C73" t="s">
-        <v>358</v>
+        <v>908</v>
       </c>
       <c r="D73" t="s">
-        <v>359</v>
+        <v>909</v>
       </c>
       <c r="E73" t="s">
-        <v>360</v>
+        <v>910</v>
       </c>
       <c r="F73" t="s">
         <v>14</v>
       </c>
       <c r="G73">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="H73" t="s">
-        <v>973</v>
+        <v>981</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A74" t="s">
-        <v>361</v>
+      <c r="A74">
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>362</v>
+        <v>540</v>
       </c>
       <c r="C74" t="s">
-        <v>363</v>
+        <v>541</v>
       </c>
       <c r="D74" t="s">
-        <v>364</v>
+        <v>542</v>
       </c>
       <c r="E74" t="s">
-        <v>365</v>
+        <v>543</v>
       </c>
       <c r="F74" t="s">
         <v>14</v>
       </c>
       <c r="G74">
-        <v>1997</v>
+        <v>2005</v>
       </c>
       <c r="H74" t="s">
-        <v>947</v>
+        <v>981</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A75" t="s">
-        <v>366</v>
+      <c r="A75">
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>367</v>
+        <v>155</v>
       </c>
       <c r="C75" t="s">
-        <v>368</v>
+        <v>156</v>
       </c>
       <c r="D75" t="s">
-        <v>369</v>
+        <v>157</v>
       </c>
       <c r="E75" t="s">
-        <v>370</v>
+        <v>158</v>
       </c>
       <c r="F75" t="s">
         <v>21</v>
       </c>
       <c r="G75">
-        <v>1987</v>
+        <v>1981</v>
       </c>
       <c r="H75" t="s">
-        <v>949</v>
+        <v>981</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A76" t="s">
-        <v>371</v>
+      <c r="A76">
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>372</v>
+        <v>576</v>
       </c>
       <c r="C76" t="s">
-        <v>373</v>
+        <v>577</v>
       </c>
       <c r="D76" t="s">
-        <v>374</v>
+        <v>578</v>
       </c>
       <c r="E76" t="s">
-        <v>375</v>
+        <v>579</v>
       </c>
       <c r="F76" t="s">
         <v>14</v>
       </c>
       <c r="G76">
-        <v>2022</v>
+        <v>2015</v>
       </c>
       <c r="H76" t="s">
-        <v>959</v>
+        <v>981</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A77" t="s">
-        <v>376</v>
+      <c r="A77">
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>377</v>
+        <v>509</v>
       </c>
       <c r="C77" t="s">
-        <v>378</v>
+        <v>510</v>
       </c>
       <c r="D77" t="s">
-        <v>379</v>
+        <v>511</v>
       </c>
       <c r="E77" t="s">
-        <v>380</v>
+        <v>209</v>
       </c>
       <c r="F77" t="s">
         <v>14</v>
       </c>
       <c r="G77">
-        <v>1987</v>
+        <v>2016</v>
       </c>
       <c r="H77" t="s">
-        <v>963</v>
+        <v>981</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A78" t="s">
-        <v>381</v>
+      <c r="A78">
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>382</v>
+        <v>66</v>
       </c>
       <c r="C78" t="s">
-        <v>383</v>
+        <v>67</v>
       </c>
       <c r="D78" t="s">
-        <v>384</v>
+        <v>68</v>
       </c>
       <c r="E78" t="s">
-        <v>385</v>
+        <v>69</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G78">
-        <v>1988</v>
+        <v>1978</v>
       </c>
       <c r="H78" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A79" t="s">
-        <v>386</v>
+      <c r="A79">
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>387</v>
+        <v>177</v>
       </c>
       <c r="C79" t="s">
-        <v>388</v>
+        <v>178</v>
       </c>
       <c r="D79" t="s">
-        <v>389</v>
+        <v>179</v>
       </c>
       <c r="E79" t="s">
-        <v>246</v>
+        <v>180</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G79">
-        <v>2002</v>
+        <v>1983</v>
       </c>
       <c r="H79" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A80" t="s">
-        <v>390</v>
+      <c r="A80">
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>391</v>
+        <v>736</v>
       </c>
       <c r="C80" t="s">
-        <v>392</v>
+        <v>737</v>
       </c>
       <c r="D80" t="s">
-        <v>393</v>
+        <v>738</v>
       </c>
       <c r="E80" t="s">
-        <v>394</v>
+        <v>739</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G80">
-        <v>2006</v>
+        <v>2024</v>
       </c>
       <c r="H80" t="s">
-        <v>965</v>
+        <v>981</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A81" t="s">
-        <v>395</v>
+      <c r="A81">
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>396</v>
+        <v>829</v>
       </c>
       <c r="C81" t="s">
-        <v>397</v>
+        <v>830</v>
       </c>
       <c r="D81" t="s">
-        <v>398</v>
+        <v>831</v>
       </c>
       <c r="E81" t="s">
-        <v>399</v>
+        <v>832</v>
       </c>
       <c r="F81" t="s">
         <v>14</v>
       </c>
       <c r="G81">
-        <v>1987</v>
+        <v>1996</v>
       </c>
       <c r="H81" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A82" t="s">
-        <v>400</v>
+      <c r="A82">
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>401</v>
+        <v>656</v>
       </c>
       <c r="C82" t="s">
-        <v>402</v>
+        <v>657</v>
       </c>
       <c r="D82" t="s">
-        <v>403</v>
+        <v>658</v>
       </c>
       <c r="E82" t="s">
-        <v>228</v>
+        <v>659</v>
       </c>
       <c r="F82" t="s">
         <v>21</v>
       </c>
       <c r="G82">
-        <v>1999</v>
+        <v>1979</v>
       </c>
       <c r="H82" t="s">
-        <v>961</v>
+        <v>981</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A83" t="s">
-        <v>404</v>
+      <c r="A83">
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>405</v>
+        <v>470</v>
       </c>
       <c r="C83" t="s">
-        <v>406</v>
+        <v>471</v>
       </c>
       <c r="D83" t="s">
-        <v>407</v>
+        <v>472</v>
       </c>
       <c r="E83" t="s">
-        <v>408</v>
+        <v>473</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G83">
-        <v>2019</v>
+        <v>1996</v>
       </c>
       <c r="H83" t="s">
-        <v>977</v>
+        <v>981</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A84" t="s">
-        <v>409</v>
+      <c r="A84">
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>410</v>
+        <v>550</v>
       </c>
       <c r="C84" t="s">
-        <v>411</v>
+        <v>551</v>
       </c>
       <c r="D84" t="s">
-        <v>412</v>
+        <v>552</v>
       </c>
       <c r="E84" t="s">
-        <v>413</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G84">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="H84" t="s">
-        <v>969</v>
+        <v>981</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A85" t="s">
-        <v>414</v>
+      <c r="A85">
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>415</v>
+        <v>615</v>
       </c>
       <c r="C85" t="s">
-        <v>416</v>
+        <v>616</v>
       </c>
       <c r="D85" t="s">
-        <v>417</v>
+        <v>617</v>
       </c>
       <c r="E85" t="s">
-        <v>418</v>
+        <v>618</v>
       </c>
       <c r="F85" t="s">
         <v>14</v>
@@ -5777,506 +5776,506 @@
         <v>2002</v>
       </c>
       <c r="H85" t="s">
-        <v>951</v>
+        <v>981</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A86" t="s">
-        <v>419</v>
+      <c r="A86">
+        <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>420</v>
+        <v>42</v>
       </c>
       <c r="C86" t="s">
-        <v>421</v>
+        <v>43</v>
       </c>
       <c r="D86" t="s">
-        <v>422</v>
+        <v>44</v>
       </c>
       <c r="E86" t="s">
-        <v>423</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G86">
-        <v>1990</v>
+        <v>1975</v>
       </c>
       <c r="H86" t="s">
-        <v>951</v>
+        <v>981</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A87" t="s">
-        <v>424</v>
+      <c r="A87">
+        <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>425</v>
+        <v>318</v>
       </c>
       <c r="C87" t="s">
-        <v>426</v>
+        <v>319</v>
       </c>
       <c r="D87" t="s">
-        <v>427</v>
+        <v>320</v>
       </c>
       <c r="E87" t="s">
-        <v>428</v>
+        <v>321</v>
       </c>
       <c r="F87" t="s">
         <v>14</v>
       </c>
       <c r="G87">
-        <v>2006</v>
+        <v>1993</v>
       </c>
       <c r="H87" t="s">
-        <v>973</v>
+        <v>981</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A88" t="s">
-        <v>429</v>
+      <c r="A88">
+        <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>430</v>
+        <v>640</v>
       </c>
       <c r="C88" t="s">
+        <v>641</v>
+      </c>
+      <c r="D88" t="s">
+        <v>642</v>
+      </c>
+      <c r="E88" t="s">
+        <v>643</v>
+      </c>
+      <c r="F88" t="s">
+        <v>14</v>
+      </c>
+      <c r="G88">
+        <v>2019</v>
+      </c>
+      <c r="H88" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>255</v>
+      </c>
+      <c r="C89" t="s">
+        <v>256</v>
+      </c>
+      <c r="D89" t="s">
+        <v>257</v>
+      </c>
+      <c r="E89" t="s">
+        <v>258</v>
+      </c>
+      <c r="F89" t="s">
+        <v>21</v>
+      </c>
+      <c r="G89">
+        <v>2009</v>
+      </c>
+      <c r="H89" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>36</v>
+      </c>
+      <c r="C90" t="s">
+        <v>37</v>
+      </c>
+      <c r="D90" t="s">
+        <v>38</v>
+      </c>
+      <c r="E90" t="s">
+        <v>39</v>
+      </c>
+      <c r="F90" t="s">
+        <v>14</v>
+      </c>
+      <c r="G90">
+        <v>1994</v>
+      </c>
+      <c r="H90" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>709</v>
+      </c>
+      <c r="C91" t="s">
         <v>431</v>
       </c>
-      <c r="D88" t="s">
-        <v>432</v>
-      </c>
-      <c r="E88" t="s">
+      <c r="D91" t="s">
+        <v>711</v>
+      </c>
+      <c r="E91" t="s">
         <v>433</v>
       </c>
-      <c r="F88" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88">
-        <v>1978</v>
-      </c>
-      <c r="H88" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A89" t="s">
-        <v>434</v>
-      </c>
-      <c r="B89" t="s">
-        <v>435</v>
-      </c>
-      <c r="C89" t="s">
-        <v>436</v>
-      </c>
-      <c r="D89" t="s">
-        <v>437</v>
-      </c>
-      <c r="E89" t="s">
-        <v>438</v>
-      </c>
-      <c r="F89" t="s">
-        <v>21</v>
-      </c>
-      <c r="G89">
-        <v>1991</v>
-      </c>
-      <c r="H89" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A90" t="s">
-        <v>439</v>
-      </c>
-      <c r="B90" t="s">
-        <v>440</v>
-      </c>
-      <c r="C90" t="s">
-        <v>441</v>
-      </c>
-      <c r="D90" t="s">
-        <v>442</v>
-      </c>
-      <c r="E90" t="s">
-        <v>443</v>
-      </c>
-      <c r="F90" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90">
-        <v>2012</v>
-      </c>
-      <c r="H90" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A91" t="s">
-        <v>444</v>
-      </c>
-      <c r="B91" t="s">
-        <v>445</v>
-      </c>
-      <c r="C91" t="s">
-        <v>446</v>
-      </c>
-      <c r="D91" t="s">
-        <v>447</v>
-      </c>
-      <c r="E91" t="s">
-        <v>448</v>
-      </c>
       <c r="F91" t="s">
         <v>14</v>
       </c>
       <c r="G91">
-        <v>2010</v>
+        <v>1997</v>
       </c>
       <c r="H91" t="s">
-        <v>945</v>
+        <v>971</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A92" t="s">
-        <v>449</v>
+      <c r="A92">
+        <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>450</v>
+        <v>666</v>
       </c>
       <c r="C92" t="s">
-        <v>451</v>
+        <v>667</v>
       </c>
       <c r="D92" t="s">
-        <v>452</v>
+        <v>668</v>
       </c>
       <c r="E92" t="s">
-        <v>453</v>
+        <v>669</v>
       </c>
       <c r="F92" t="s">
         <v>21</v>
       </c>
       <c r="G92">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="H92" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A93" t="s">
-        <v>454</v>
+      <c r="A93">
+        <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>455</v>
+        <v>705</v>
       </c>
       <c r="C93" t="s">
-        <v>456</v>
+        <v>706</v>
       </c>
       <c r="D93" t="s">
-        <v>457</v>
+        <v>707</v>
       </c>
       <c r="E93" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="F93" t="s">
         <v>14</v>
       </c>
       <c r="G93">
-        <v>1988</v>
+        <v>1996</v>
       </c>
       <c r="H93" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A94" t="s">
-        <v>459</v>
+      <c r="A94">
+        <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C94" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D94" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="E94" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F94" t="s">
         <v>14</v>
       </c>
       <c r="G94">
-        <v>2006</v>
+        <v>1988</v>
       </c>
       <c r="H94" t="s">
-        <v>979</v>
+        <v>955</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A95" t="s">
-        <v>464</v>
+      <c r="A95">
+        <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>465</v>
+        <v>898</v>
       </c>
       <c r="C95" t="s">
-        <v>466</v>
+        <v>899</v>
       </c>
       <c r="D95" t="s">
-        <v>467</v>
+        <v>900</v>
       </c>
       <c r="E95" t="s">
-        <v>468</v>
+        <v>507</v>
       </c>
       <c r="F95" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G95">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="H95" t="s">
-        <v>945</v>
+        <v>955</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A96" t="s">
-        <v>469</v>
+      <c r="A96">
+        <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>470</v>
+        <v>499</v>
       </c>
       <c r="C96" t="s">
-        <v>471</v>
+        <v>500</v>
       </c>
       <c r="D96" t="s">
-        <v>472</v>
+        <v>501</v>
       </c>
       <c r="E96" t="s">
-        <v>473</v>
+        <v>502</v>
       </c>
       <c r="F96" t="s">
         <v>21</v>
       </c>
       <c r="G96">
-        <v>1996</v>
+        <v>1989</v>
       </c>
       <c r="H96" t="s">
-        <v>981</v>
+        <v>955</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A97" t="s">
-        <v>474</v>
+      <c r="A97">
+        <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>475</v>
+        <v>731</v>
       </c>
       <c r="C97" t="s">
-        <v>476</v>
+        <v>732</v>
       </c>
       <c r="D97" t="s">
-        <v>477</v>
+        <v>733</v>
       </c>
       <c r="E97" t="s">
-        <v>478</v>
+        <v>734</v>
       </c>
       <c r="F97" t="s">
         <v>21</v>
       </c>
       <c r="G97">
-        <v>1975</v>
+        <v>1985</v>
       </c>
       <c r="H97" t="s">
-        <v>975</v>
+        <v>955</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A98" t="s">
-        <v>479</v>
+      <c r="A98">
+        <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>480</v>
+        <v>30</v>
       </c>
       <c r="C98" t="s">
-        <v>481</v>
+        <v>31</v>
       </c>
       <c r="D98" t="s">
-        <v>482</v>
+        <v>32</v>
       </c>
       <c r="E98" t="s">
-        <v>483</v>
+        <v>33</v>
       </c>
       <c r="F98" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G98">
-        <v>1978</v>
+        <v>2024</v>
       </c>
       <c r="H98" t="s">
-        <v>945</v>
+        <v>955</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A99" t="s">
-        <v>484</v>
+      <c r="A99">
+        <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>485</v>
+        <v>24</v>
       </c>
       <c r="C99" t="s">
-        <v>486</v>
+        <v>25</v>
       </c>
       <c r="D99" t="s">
-        <v>487</v>
+        <v>26</v>
       </c>
       <c r="E99" t="s">
-        <v>488</v>
+        <v>27</v>
       </c>
       <c r="F99" t="s">
         <v>14</v>
       </c>
       <c r="G99">
-        <v>2011</v>
+        <v>1986</v>
       </c>
       <c r="H99" t="s">
-        <v>947</v>
+        <v>955</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A100" t="s">
-        <v>489</v>
+      <c r="A100">
+        <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>490</v>
+        <v>225</v>
       </c>
       <c r="C100" t="s">
-        <v>491</v>
+        <v>873</v>
       </c>
       <c r="D100" t="s">
-        <v>492</v>
+        <v>227</v>
       </c>
       <c r="E100" t="s">
-        <v>375</v>
+        <v>874</v>
       </c>
       <c r="F100" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G100">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="H100" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A101" t="s">
-        <v>493</v>
+      <c r="A101">
+        <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>494</v>
+        <v>531</v>
       </c>
       <c r="C101" t="s">
-        <v>495</v>
+        <v>532</v>
       </c>
       <c r="D101" t="s">
-        <v>496</v>
+        <v>533</v>
       </c>
       <c r="E101" t="s">
-        <v>497</v>
+        <v>453</v>
       </c>
       <c r="F101" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G101">
-        <v>1998</v>
+        <v>1981</v>
       </c>
       <c r="H101" t="s">
-        <v>975</v>
+        <v>983</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A102" t="s">
-        <v>498</v>
+      <c r="A102">
+        <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>499</v>
+        <v>302</v>
       </c>
       <c r="C102" t="s">
-        <v>500</v>
+        <v>303</v>
       </c>
       <c r="D102" t="s">
-        <v>501</v>
+        <v>304</v>
       </c>
       <c r="E102" t="s">
-        <v>502</v>
+        <v>305</v>
       </c>
       <c r="F102" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G102">
+        <v>1995</v>
+      </c>
+      <c r="H102" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>545</v>
+      </c>
+      <c r="C103" t="s">
+        <v>546</v>
+      </c>
+      <c r="D103" t="s">
+        <v>547</v>
+      </c>
+      <c r="E103" t="s">
+        <v>548</v>
+      </c>
+      <c r="F103" t="s">
+        <v>21</v>
+      </c>
+      <c r="G103">
+        <v>1976</v>
+      </c>
+      <c r="H103" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>230</v>
+      </c>
+      <c r="C104" t="s">
+        <v>172</v>
+      </c>
+      <c r="D104" t="s">
+        <v>231</v>
+      </c>
+      <c r="E104" t="s">
+        <v>174</v>
+      </c>
+      <c r="F104" t="s">
+        <v>21</v>
+      </c>
+      <c r="G104">
         <v>1989</v>
       </c>
-      <c r="H102" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A103" t="s">
-        <v>503</v>
-      </c>
-      <c r="B103" t="s">
-        <v>504</v>
-      </c>
-      <c r="C103" t="s">
-        <v>505</v>
-      </c>
-      <c r="D103" t="s">
-        <v>506</v>
-      </c>
-      <c r="E103" t="s">
-        <v>507</v>
-      </c>
-      <c r="F103" t="s">
-        <v>21</v>
-      </c>
-      <c r="G103">
-        <v>2015</v>
-      </c>
-      <c r="H103" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A104" t="s">
-        <v>508</v>
-      </c>
-      <c r="B104" t="s">
-        <v>509</v>
-      </c>
-      <c r="C104" t="s">
-        <v>510</v>
-      </c>
-      <c r="D104" t="s">
-        <v>511</v>
-      </c>
-      <c r="E104" t="s">
-        <v>209</v>
-      </c>
-      <c r="F104" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104">
-        <v>2016</v>
-      </c>
       <c r="H104" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A105" t="s">
-        <v>512</v>
+      <c r="A105">
+        <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>513</v>
@@ -6301,410 +6300,410 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A106" t="s">
-        <v>516</v>
+      <c r="A106">
+        <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>517</v>
+        <v>902</v>
       </c>
       <c r="C106" t="s">
-        <v>518</v>
+        <v>903</v>
       </c>
       <c r="D106" t="s">
-        <v>311</v>
+        <v>904</v>
       </c>
       <c r="E106" t="s">
-        <v>519</v>
+        <v>905</v>
       </c>
       <c r="F106" t="s">
         <v>21</v>
       </c>
       <c r="G106">
-        <v>2019</v>
+        <v>1981</v>
       </c>
       <c r="H106" t="s">
-        <v>975</v>
+        <v>983</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A107" t="s">
-        <v>520</v>
+      <c r="A107">
+        <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>521</v>
+        <v>78</v>
       </c>
       <c r="C107" t="s">
-        <v>522</v>
+        <v>79</v>
       </c>
       <c r="D107" t="s">
-        <v>523</v>
+        <v>80</v>
       </c>
       <c r="E107" t="s">
-        <v>524</v>
+        <v>81</v>
       </c>
       <c r="F107" t="s">
         <v>21</v>
       </c>
       <c r="G107">
-        <v>1984</v>
+        <v>2010</v>
       </c>
       <c r="H107" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>161</v>
+      </c>
+      <c r="C108" t="s">
+        <v>162</v>
+      </c>
+      <c r="D108" t="s">
+        <v>163</v>
+      </c>
+      <c r="E108" t="s">
+        <v>164</v>
+      </c>
+      <c r="F108" t="s">
+        <v>21</v>
+      </c>
+      <c r="G108">
+        <v>1979</v>
+      </c>
+      <c r="H108" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A108" t="s">
-        <v>525</v>
-      </c>
-      <c r="B108" t="s">
-        <v>526</v>
-      </c>
-      <c r="C108" t="s">
-        <v>527</v>
-      </c>
-      <c r="D108" t="s">
-        <v>528</v>
-      </c>
-      <c r="E108" t="s">
-        <v>529</v>
-      </c>
-      <c r="F108" t="s">
-        <v>14</v>
-      </c>
-      <c r="G108">
-        <v>1984</v>
-      </c>
-      <c r="H108" t="s">
-        <v>945</v>
-      </c>
-    </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A109" t="s">
-        <v>530</v>
+      <c r="A109">
+        <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>531</v>
+        <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>532</v>
+        <v>113</v>
       </c>
       <c r="D109" t="s">
-        <v>533</v>
+        <v>114</v>
       </c>
       <c r="E109" t="s">
-        <v>453</v>
+        <v>115</v>
       </c>
       <c r="F109" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G109">
-        <v>1981</v>
+        <v>1988</v>
       </c>
       <c r="H109" t="s">
-        <v>983</v>
+        <v>953</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A110" t="s">
-        <v>534</v>
+      <c r="A110">
+        <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>535</v>
+        <v>89</v>
       </c>
       <c r="C110" t="s">
-        <v>536</v>
+        <v>90</v>
       </c>
       <c r="D110" t="s">
-        <v>537</v>
+        <v>91</v>
       </c>
       <c r="E110" t="s">
-        <v>538</v>
+        <v>92</v>
       </c>
       <c r="F110" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G110">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="H110" t="s">
         <v>953</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A111" t="s">
-        <v>539</v>
+      <c r="A111">
+        <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>540</v>
+        <v>521</v>
       </c>
       <c r="C111" t="s">
-        <v>541</v>
+        <v>522</v>
       </c>
       <c r="D111" t="s">
-        <v>542</v>
+        <v>523</v>
       </c>
       <c r="E111" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
       <c r="F111" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G111">
-        <v>2005</v>
+        <v>1984</v>
       </c>
       <c r="H111" t="s">
-        <v>981</v>
+        <v>953</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A112" t="s">
-        <v>544</v>
+      <c r="A112">
+        <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>545</v>
+        <v>144</v>
       </c>
       <c r="C112" t="s">
-        <v>546</v>
+        <v>145</v>
       </c>
       <c r="D112" t="s">
-        <v>547</v>
+        <v>146</v>
       </c>
       <c r="E112" t="s">
-        <v>548</v>
+        <v>147</v>
       </c>
       <c r="F112" t="s">
         <v>21</v>
       </c>
       <c r="G112">
-        <v>1976</v>
+        <v>2006</v>
       </c>
       <c r="H112" t="s">
-        <v>983</v>
+        <v>953</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A113" t="s">
-        <v>549</v>
+      <c r="A113">
+        <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>550</v>
+        <v>594</v>
       </c>
       <c r="C113" t="s">
-        <v>551</v>
+        <v>595</v>
       </c>
       <c r="D113" t="s">
-        <v>552</v>
+        <v>596</v>
       </c>
       <c r="E113" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F113" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G113">
-        <v>1979</v>
+        <v>1989</v>
       </c>
       <c r="H113" t="s">
-        <v>981</v>
+        <v>953</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A114" t="s">
-        <v>553</v>
+      <c r="A114">
+        <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>554</v>
+        <v>216</v>
       </c>
       <c r="C114" t="s">
-        <v>555</v>
+        <v>217</v>
       </c>
       <c r="D114" t="s">
-        <v>556</v>
+        <v>218</v>
       </c>
       <c r="E114" t="s">
-        <v>557</v>
+        <v>219</v>
       </c>
       <c r="F114" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G114">
-        <v>1982</v>
+        <v>1991</v>
       </c>
       <c r="H114" t="s">
-        <v>973</v>
+        <v>953</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A115" t="s">
-        <v>558</v>
+      <c r="A115">
+        <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>460</v>
+        <v>535</v>
       </c>
       <c r="C115" t="s">
-        <v>559</v>
+        <v>536</v>
       </c>
       <c r="D115" t="s">
-        <v>462</v>
+        <v>537</v>
       </c>
       <c r="E115" t="s">
-        <v>241</v>
+        <v>538</v>
       </c>
       <c r="F115" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G115">
-        <v>1985</v>
+        <v>2007</v>
       </c>
       <c r="H115" t="s">
-        <v>977</v>
+        <v>953</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A116" t="s">
-        <v>560</v>
+      <c r="A116">
+        <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>561</v>
+        <v>940</v>
       </c>
       <c r="C116" t="s">
-        <v>562</v>
+        <v>941</v>
       </c>
       <c r="D116" t="s">
-        <v>563</v>
+        <v>942</v>
       </c>
       <c r="E116" t="s">
-        <v>564</v>
+        <v>943</v>
       </c>
       <c r="F116" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G116">
-        <v>1981</v>
+        <v>2023</v>
       </c>
       <c r="H116" t="s">
-        <v>985</v>
+        <v>953</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A117" t="s">
-        <v>565</v>
+      <c r="A117">
+        <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>566</v>
+        <v>781</v>
       </c>
       <c r="C117" t="s">
-        <v>567</v>
+        <v>782</v>
       </c>
       <c r="D117" t="s">
-        <v>568</v>
+        <v>783</v>
       </c>
       <c r="E117" t="s">
-        <v>569</v>
+        <v>784</v>
       </c>
       <c r="F117" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G117">
-        <v>1987</v>
+        <v>2024</v>
       </c>
       <c r="H117" t="s">
-        <v>973</v>
+        <v>953</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A118" t="s">
-        <v>570</v>
+      <c r="A118">
+        <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>571</v>
+        <v>839</v>
       </c>
       <c r="C118" t="s">
-        <v>572</v>
+        <v>840</v>
       </c>
       <c r="D118" t="s">
-        <v>573</v>
+        <v>841</v>
       </c>
       <c r="E118" t="s">
-        <v>574</v>
+        <v>842</v>
       </c>
       <c r="F118" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G118">
-        <v>2016</v>
+        <v>1994</v>
       </c>
       <c r="H118" t="s">
-        <v>975</v>
+        <v>953</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A119" t="s">
-        <v>575</v>
+      <c r="A119">
+        <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>576</v>
+        <v>598</v>
       </c>
       <c r="C119" t="s">
-        <v>577</v>
+        <v>599</v>
       </c>
       <c r="D119" t="s">
-        <v>578</v>
+        <v>600</v>
       </c>
       <c r="E119" t="s">
-        <v>579</v>
+        <v>601</v>
       </c>
       <c r="F119" t="s">
         <v>14</v>
       </c>
       <c r="G119">
-        <v>2015</v>
+        <v>1997</v>
       </c>
       <c r="H119" t="s">
-        <v>981</v>
+        <v>953</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A120" t="s">
-        <v>580</v>
+      <c r="A120">
+        <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>581</v>
+        <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>582</v>
+        <v>123</v>
       </c>
       <c r="D120" t="s">
-        <v>583</v>
+        <v>124</v>
       </c>
       <c r="E120" t="s">
-        <v>584</v>
+        <v>125</v>
       </c>
       <c r="F120" t="s">
         <v>14</v>
       </c>
       <c r="G120">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="H120" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A121" t="s">
-        <v>585</v>
+      <c r="A121">
+        <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>586</v>
+        <v>251</v>
       </c>
       <c r="C121" t="s">
-        <v>587</v>
+        <v>252</v>
       </c>
       <c r="D121" t="s">
-        <v>588</v>
+        <v>253</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="F121" t="s">
         <v>14</v>
@@ -6717,190 +6716,190 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A122" t="s">
-        <v>589</v>
+      <c r="A122">
+        <v>121</v>
       </c>
       <c r="B122" t="s">
+        <v>586</v>
+      </c>
+      <c r="C122" t="s">
+        <v>587</v>
+      </c>
+      <c r="D122" t="s">
+        <v>588</v>
+      </c>
+      <c r="E122" t="s">
+        <v>235</v>
+      </c>
+      <c r="F122" t="s">
+        <v>14</v>
+      </c>
+      <c r="G122">
+        <v>2003</v>
+      </c>
+      <c r="H122" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>723</v>
+      </c>
+      <c r="C123" t="s">
+        <v>724</v>
+      </c>
+      <c r="D123" t="s">
+        <v>725</v>
+      </c>
+      <c r="E123" t="s">
+        <v>726</v>
+      </c>
+      <c r="F123" t="s">
+        <v>21</v>
+      </c>
+      <c r="G123">
+        <v>1998</v>
+      </c>
+      <c r="H123" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>766</v>
+      </c>
+      <c r="C124" t="s">
+        <v>767</v>
+      </c>
+      <c r="D124" t="s">
+        <v>768</v>
+      </c>
+      <c r="E124" t="s">
+        <v>769</v>
+      </c>
+      <c r="F124" t="s">
+        <v>21</v>
+      </c>
+      <c r="G124">
+        <v>1988</v>
+      </c>
+      <c r="H124" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
         <v>590</v>
       </c>
-      <c r="C122" t="s">
-        <v>591</v>
-      </c>
-      <c r="D122" t="s">
+      <c r="C125" t="s">
+        <v>821</v>
+      </c>
+      <c r="D125" t="s">
         <v>592</v>
       </c>
-      <c r="E122" t="s">
-        <v>180</v>
-      </c>
-      <c r="F122" t="s">
-        <v>21</v>
-      </c>
-      <c r="G122">
-        <v>2023</v>
-      </c>
-      <c r="H122" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A123" t="s">
-        <v>593</v>
-      </c>
-      <c r="B123" t="s">
-        <v>594</v>
-      </c>
-      <c r="C123" t="s">
-        <v>595</v>
-      </c>
-      <c r="D123" t="s">
-        <v>596</v>
-      </c>
-      <c r="E123" t="s">
-        <v>39</v>
-      </c>
-      <c r="F123" t="s">
-        <v>14</v>
-      </c>
-      <c r="G123">
-        <v>1989</v>
-      </c>
-      <c r="H123" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A124" t="s">
-        <v>597</v>
-      </c>
-      <c r="B124" t="s">
-        <v>598</v>
-      </c>
-      <c r="C124" t="s">
-        <v>599</v>
-      </c>
-      <c r="D124" t="s">
-        <v>600</v>
-      </c>
-      <c r="E124" t="s">
-        <v>601</v>
-      </c>
-      <c r="F124" t="s">
-        <v>14</v>
-      </c>
-      <c r="G124">
+      <c r="E125" t="s">
+        <v>822</v>
+      </c>
+      <c r="F125" t="s">
+        <v>14</v>
+      </c>
+      <c r="G125">
+        <v>2017</v>
+      </c>
+      <c r="H125" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>282</v>
+      </c>
+      <c r="C126" t="s">
+        <v>283</v>
+      </c>
+      <c r="D126" t="s">
+        <v>284</v>
+      </c>
+      <c r="E126" t="s">
+        <v>285</v>
+      </c>
+      <c r="F126" t="s">
+        <v>14</v>
+      </c>
+      <c r="G126">
         <v>1997</v>
       </c>
-      <c r="H124" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A125" t="s">
-        <v>602</v>
-      </c>
-      <c r="B125" t="s">
-        <v>603</v>
-      </c>
-      <c r="C125" t="s">
-        <v>604</v>
-      </c>
-      <c r="D125" t="s">
-        <v>605</v>
-      </c>
-      <c r="E125" t="s">
-        <v>606</v>
-      </c>
-      <c r="F125" t="s">
-        <v>14</v>
-      </c>
-      <c r="G125">
-        <v>1988</v>
-      </c>
-      <c r="H125" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A126" t="s">
-        <v>607</v>
-      </c>
-      <c r="B126" t="s">
-        <v>608</v>
-      </c>
-      <c r="C126" t="s">
-        <v>609</v>
-      </c>
-      <c r="D126" t="s">
-        <v>610</v>
-      </c>
-      <c r="E126" t="s">
-        <v>345</v>
-      </c>
-      <c r="F126" t="s">
-        <v>14</v>
-      </c>
-      <c r="G126">
-        <v>1999</v>
-      </c>
       <c r="H126" t="s">
-        <v>973</v>
+        <v>957</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A127" t="s">
-        <v>611</v>
+      <c r="A127">
+        <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>352</v>
+        <v>212</v>
       </c>
       <c r="C127" t="s">
-        <v>612</v>
+        <v>213</v>
       </c>
       <c r="D127" t="s">
-        <v>354</v>
+        <v>214</v>
       </c>
       <c r="E127" t="s">
-        <v>613</v>
+        <v>215</v>
       </c>
       <c r="F127" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G127">
-        <v>1985</v>
+        <v>1981</v>
       </c>
       <c r="H127" t="s">
-        <v>947</v>
+        <v>957</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A128" t="s">
-        <v>614</v>
+      <c r="A128">
+        <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>615</v>
+        <v>700</v>
       </c>
       <c r="C128" t="s">
-        <v>616</v>
+        <v>701</v>
       </c>
       <c r="D128" t="s">
-        <v>617</v>
+        <v>702</v>
       </c>
       <c r="E128" t="s">
-        <v>618</v>
+        <v>703</v>
       </c>
       <c r="F128" t="s">
         <v>14</v>
       </c>
       <c r="G128">
-        <v>2002</v>
+        <v>2021</v>
       </c>
       <c r="H128" t="s">
-        <v>981</v>
+        <v>957</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A129" t="s">
-        <v>619</v>
+      <c r="A129">
+        <v>128</v>
       </c>
       <c r="B129" t="s">
         <v>620</v>
@@ -6925,1230 +6924,1230 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A130" t="s">
-        <v>624</v>
+      <c r="A130">
+        <v>129</v>
       </c>
       <c r="B130" t="s">
+        <v>791</v>
+      </c>
+      <c r="C130" t="s">
+        <v>792</v>
+      </c>
+      <c r="D130" t="s">
+        <v>793</v>
+      </c>
+      <c r="E130" t="s">
+        <v>794</v>
+      </c>
+      <c r="F130" t="s">
+        <v>14</v>
+      </c>
+      <c r="G130">
+        <v>2004</v>
+      </c>
+      <c r="H130" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>460</v>
+      </c>
+      <c r="C131" t="s">
+        <v>559</v>
+      </c>
+      <c r="D131" t="s">
+        <v>462</v>
+      </c>
+      <c r="E131" t="s">
+        <v>241</v>
+      </c>
+      <c r="F131" t="s">
+        <v>14</v>
+      </c>
+      <c r="G131">
+        <v>1985</v>
+      </c>
+      <c r="H131" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>405</v>
+      </c>
+      <c r="C132" t="s">
+        <v>406</v>
+      </c>
+      <c r="D132" t="s">
+        <v>407</v>
+      </c>
+      <c r="E132" t="s">
+        <v>408</v>
+      </c>
+      <c r="F132" t="s">
+        <v>14</v>
+      </c>
+      <c r="G132">
+        <v>2019</v>
+      </c>
+      <c r="H132" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>876</v>
+      </c>
+      <c r="C133" t="s">
+        <v>877</v>
+      </c>
+      <c r="D133" t="s">
+        <v>878</v>
+      </c>
+      <c r="E133" t="s">
+        <v>350</v>
+      </c>
+      <c r="F133" t="s">
+        <v>21</v>
+      </c>
+      <c r="G133">
+        <v>2001</v>
+      </c>
+      <c r="H133" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>139</v>
+      </c>
+      <c r="C134" t="s">
+        <v>140</v>
+      </c>
+      <c r="D134" t="s">
+        <v>141</v>
+      </c>
+      <c r="E134" t="s">
+        <v>142</v>
+      </c>
+      <c r="F134" t="s">
+        <v>21</v>
+      </c>
+      <c r="G134">
+        <v>2024</v>
+      </c>
+      <c r="H134" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>713</v>
+      </c>
+      <c r="C135" t="s">
+        <v>714</v>
+      </c>
+      <c r="D135" t="s">
+        <v>715</v>
+      </c>
+      <c r="E135" t="s">
+        <v>716</v>
+      </c>
+      <c r="F135" t="s">
+        <v>14</v>
+      </c>
+      <c r="G135">
+        <v>2016</v>
+      </c>
+      <c r="H135" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>864</v>
+      </c>
+      <c r="C136" t="s">
+        <v>865</v>
+      </c>
+      <c r="D136" t="s">
+        <v>866</v>
+      </c>
+      <c r="E136" t="s">
+        <v>867</v>
+      </c>
+      <c r="F136" t="s">
+        <v>14</v>
+      </c>
+      <c r="G136">
+        <v>2008</v>
+      </c>
+      <c r="H136" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>746</v>
+      </c>
+      <c r="C137" t="s">
+        <v>747</v>
+      </c>
+      <c r="D137" t="s">
+        <v>748</v>
+      </c>
+      <c r="E137" t="s">
+        <v>749</v>
+      </c>
+      <c r="F137" t="s">
+        <v>21</v>
+      </c>
+      <c r="G137">
+        <v>1993</v>
+      </c>
+      <c r="H137" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>494</v>
+      </c>
+      <c r="C138" t="s">
+        <v>495</v>
+      </c>
+      <c r="D138" t="s">
+        <v>496</v>
+      </c>
+      <c r="E138" t="s">
+        <v>497</v>
+      </c>
+      <c r="F138" t="s">
+        <v>14</v>
+      </c>
+      <c r="G138">
+        <v>1998</v>
+      </c>
+      <c r="H138" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>499</v>
+      </c>
+      <c r="C139" t="s">
+        <v>652</v>
+      </c>
+      <c r="D139" t="s">
+        <v>501</v>
+      </c>
+      <c r="E139" t="s">
+        <v>653</v>
+      </c>
+      <c r="F139" t="s">
+        <v>21</v>
+      </c>
+      <c r="G139">
+        <v>1981</v>
+      </c>
+      <c r="H139" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>273</v>
+      </c>
+      <c r="C140" t="s">
+        <v>274</v>
+      </c>
+      <c r="D140" t="s">
+        <v>275</v>
+      </c>
+      <c r="E140" t="s">
+        <v>276</v>
+      </c>
+      <c r="F140" t="s">
+        <v>14</v>
+      </c>
+      <c r="G140">
+        <v>1997</v>
+      </c>
+      <c r="H140" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>576</v>
+      </c>
+      <c r="C141" t="s">
+        <v>728</v>
+      </c>
+      <c r="D141" t="s">
+        <v>578</v>
+      </c>
+      <c r="E141" t="s">
+        <v>729</v>
+      </c>
+      <c r="F141" t="s">
+        <v>21</v>
+      </c>
+      <c r="G141">
+        <v>1985</v>
+      </c>
+      <c r="H141" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>757</v>
+      </c>
+      <c r="C142" t="s">
+        <v>758</v>
+      </c>
+      <c r="D142" t="s">
+        <v>759</v>
+      </c>
+      <c r="E142" t="s">
+        <v>760</v>
+      </c>
+      <c r="F142" t="s">
+        <v>21</v>
+      </c>
+      <c r="G142">
+        <v>2008</v>
+      </c>
+      <c r="H142" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>608</v>
+      </c>
+      <c r="C143" t="s">
+        <v>334</v>
+      </c>
+      <c r="D143" t="s">
+        <v>610</v>
+      </c>
+      <c r="E143" t="s">
+        <v>336</v>
+      </c>
+      <c r="F143" t="s">
+        <v>14</v>
+      </c>
+      <c r="G143">
+        <v>2012</v>
+      </c>
+      <c r="H143" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>475</v>
+      </c>
+      <c r="C144" t="s">
+        <v>476</v>
+      </c>
+      <c r="D144" t="s">
+        <v>477</v>
+      </c>
+      <c r="E144" t="s">
+        <v>478</v>
+      </c>
+      <c r="F144" t="s">
+        <v>21</v>
+      </c>
+      <c r="G144">
+        <v>1975</v>
+      </c>
+      <c r="H144" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>571</v>
+      </c>
+      <c r="C145" t="s">
+        <v>572</v>
+      </c>
+      <c r="D145" t="s">
+        <v>573</v>
+      </c>
+      <c r="E145" t="s">
+        <v>574</v>
+      </c>
+      <c r="F145" t="s">
+        <v>21</v>
+      </c>
+      <c r="G145">
+        <v>2016</v>
+      </c>
+      <c r="H145" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>167</v>
+      </c>
+      <c r="C146" t="s">
+        <v>168</v>
+      </c>
+      <c r="D146" t="s">
+        <v>169</v>
+      </c>
+      <c r="E146" t="s">
+        <v>170</v>
+      </c>
+      <c r="F146" t="s">
+        <v>14</v>
+      </c>
+      <c r="G146">
+        <v>2021</v>
+      </c>
+      <c r="H146" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>648</v>
+      </c>
+      <c r="C147" t="s">
+        <v>649</v>
+      </c>
+      <c r="D147" t="s">
+        <v>650</v>
+      </c>
+      <c r="E147" t="s">
+        <v>433</v>
+      </c>
+      <c r="F147" t="s">
+        <v>14</v>
+      </c>
+      <c r="G147">
+        <v>2019</v>
+      </c>
+      <c r="H147" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
         <v>625</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C148" t="s">
         <v>626</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D148" t="s">
         <v>627</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E148" t="s">
         <v>628</v>
       </c>
-      <c r="F130" t="s">
-        <v>14</v>
-      </c>
-      <c r="G130">
+      <c r="F148" t="s">
+        <v>14</v>
+      </c>
+      <c r="G148">
         <v>2023</v>
       </c>
-      <c r="H130" t="s">
+      <c r="H148" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A131" t="s">
-        <v>629</v>
-      </c>
-      <c r="B131" t="s">
-        <v>630</v>
-      </c>
-      <c r="C131" t="s">
-        <v>631</v>
-      </c>
-      <c r="D131" t="s">
-        <v>632</v>
-      </c>
-      <c r="E131" t="s">
-        <v>633</v>
-      </c>
-      <c r="F131" t="s">
-        <v>21</v>
-      </c>
-      <c r="G131">
-        <v>1980</v>
-      </c>
-      <c r="H131" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A132" t="s">
-        <v>634</v>
-      </c>
-      <c r="B132" t="s">
-        <v>635</v>
-      </c>
-      <c r="C132" t="s">
-        <v>636</v>
-      </c>
-      <c r="D132" t="s">
-        <v>637</v>
-      </c>
-      <c r="E132" t="s">
-        <v>638</v>
-      </c>
-      <c r="F132" t="s">
-        <v>14</v>
-      </c>
-      <c r="G132">
-        <v>1990</v>
-      </c>
-      <c r="H132" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A133" t="s">
-        <v>639</v>
-      </c>
-      <c r="B133" t="s">
-        <v>640</v>
-      </c>
-      <c r="C133" t="s">
-        <v>641</v>
-      </c>
-      <c r="D133" t="s">
-        <v>642</v>
-      </c>
-      <c r="E133" t="s">
-        <v>643</v>
-      </c>
-      <c r="F133" t="s">
-        <v>14</v>
-      </c>
-      <c r="G133">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>17</v>
+      </c>
+      <c r="C149" t="s">
+        <v>18</v>
+      </c>
+      <c r="D149" t="s">
+        <v>19</v>
+      </c>
+      <c r="E149" t="s">
+        <v>20</v>
+      </c>
+      <c r="F149" t="s">
+        <v>21</v>
+      </c>
+      <c r="G149">
+        <v>1991</v>
+      </c>
+      <c r="H149" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>83</v>
+      </c>
+      <c r="C150" t="s">
+        <v>84</v>
+      </c>
+      <c r="D150" t="s">
+        <v>85</v>
+      </c>
+      <c r="E150" t="s">
+        <v>86</v>
+      </c>
+      <c r="F150" t="s">
+        <v>14</v>
+      </c>
+      <c r="G150">
+        <v>1993</v>
+      </c>
+      <c r="H150" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>95</v>
+      </c>
+      <c r="C151" t="s">
+        <v>96</v>
+      </c>
+      <c r="D151" t="s">
+        <v>97</v>
+      </c>
+      <c r="E151" t="s">
+        <v>98</v>
+      </c>
+      <c r="F151" t="s">
+        <v>21</v>
+      </c>
+      <c r="G151">
+        <v>1987</v>
+      </c>
+      <c r="H151" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>72</v>
+      </c>
+      <c r="C152" t="s">
+        <v>73</v>
+      </c>
+      <c r="D152" t="s">
+        <v>74</v>
+      </c>
+      <c r="E152" t="s">
+        <v>75</v>
+      </c>
+      <c r="F152" t="s">
+        <v>14</v>
+      </c>
+      <c r="G152">
+        <v>2002</v>
+      </c>
+      <c r="H152" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>517</v>
+      </c>
+      <c r="C153" t="s">
+        <v>518</v>
+      </c>
+      <c r="D153" t="s">
+        <v>311</v>
+      </c>
+      <c r="E153" t="s">
+        <v>519</v>
+      </c>
+      <c r="F153" t="s">
+        <v>21</v>
+      </c>
+      <c r="G153">
         <v>2019</v>
-      </c>
-      <c r="H133" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A134" t="s">
-        <v>644</v>
-      </c>
-      <c r="B134" t="s">
-        <v>302</v>
-      </c>
-      <c r="C134" t="s">
-        <v>645</v>
-      </c>
-      <c r="D134" t="s">
-        <v>304</v>
-      </c>
-      <c r="E134" t="s">
-        <v>646</v>
-      </c>
-      <c r="F134" t="s">
-        <v>14</v>
-      </c>
-      <c r="G134">
-        <v>1988</v>
-      </c>
-      <c r="H134" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A135" t="s">
-        <v>647</v>
-      </c>
-      <c r="B135" t="s">
-        <v>648</v>
-      </c>
-      <c r="C135" t="s">
-        <v>649</v>
-      </c>
-      <c r="D135" t="s">
-        <v>650</v>
-      </c>
-      <c r="E135" t="s">
-        <v>433</v>
-      </c>
-      <c r="F135" t="s">
-        <v>14</v>
-      </c>
-      <c r="G135">
-        <v>2019</v>
-      </c>
-      <c r="H135" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A136" t="s">
-        <v>651</v>
-      </c>
-      <c r="B136" t="s">
-        <v>499</v>
-      </c>
-      <c r="C136" t="s">
-        <v>652</v>
-      </c>
-      <c r="D136" t="s">
-        <v>501</v>
-      </c>
-      <c r="E136" t="s">
-        <v>653</v>
-      </c>
-      <c r="F136" t="s">
-        <v>21</v>
-      </c>
-      <c r="G136">
-        <v>1981</v>
-      </c>
-      <c r="H136" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A137" t="s">
-        <v>654</v>
-      </c>
-      <c r="B137" t="s">
-        <v>608</v>
-      </c>
-      <c r="C137" t="s">
-        <v>334</v>
-      </c>
-      <c r="D137" t="s">
-        <v>610</v>
-      </c>
-      <c r="E137" t="s">
-        <v>336</v>
-      </c>
-      <c r="F137" t="s">
-        <v>14</v>
-      </c>
-      <c r="G137">
-        <v>2012</v>
-      </c>
-      <c r="H137" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A138" t="s">
-        <v>655</v>
-      </c>
-      <c r="B138" t="s">
-        <v>656</v>
-      </c>
-      <c r="C138" t="s">
-        <v>657</v>
-      </c>
-      <c r="D138" t="s">
-        <v>658</v>
-      </c>
-      <c r="E138" t="s">
-        <v>659</v>
-      </c>
-      <c r="F138" t="s">
-        <v>21</v>
-      </c>
-      <c r="G138">
-        <v>1979</v>
-      </c>
-      <c r="H138" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A139" t="s">
-        <v>660</v>
-      </c>
-      <c r="B139" t="s">
-        <v>661</v>
-      </c>
-      <c r="C139" t="s">
-        <v>662</v>
-      </c>
-      <c r="D139" t="s">
-        <v>663</v>
-      </c>
-      <c r="E139" t="s">
-        <v>664</v>
-      </c>
-      <c r="F139" t="s">
-        <v>14</v>
-      </c>
-      <c r="G139">
-        <v>1982</v>
-      </c>
-      <c r="H139" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A140" t="s">
-        <v>665</v>
-      </c>
-      <c r="B140" t="s">
-        <v>666</v>
-      </c>
-      <c r="C140" t="s">
-        <v>667</v>
-      </c>
-      <c r="D140" t="s">
-        <v>668</v>
-      </c>
-      <c r="E140" t="s">
-        <v>669</v>
-      </c>
-      <c r="F140" t="s">
-        <v>21</v>
-      </c>
-      <c r="G140">
-        <v>1980</v>
-      </c>
-      <c r="H140" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A141" t="s">
-        <v>670</v>
-      </c>
-      <c r="B141" t="s">
-        <v>671</v>
-      </c>
-      <c r="C141" t="s">
-        <v>672</v>
-      </c>
-      <c r="D141" t="s">
-        <v>673</v>
-      </c>
-      <c r="E141" t="s">
-        <v>674</v>
-      </c>
-      <c r="F141" t="s">
-        <v>21</v>
-      </c>
-      <c r="G141">
-        <v>2006</v>
-      </c>
-      <c r="H141" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A142" t="s">
-        <v>675</v>
-      </c>
-      <c r="B142" t="s">
-        <v>676</v>
-      </c>
-      <c r="C142" t="s">
-        <v>677</v>
-      </c>
-      <c r="D142" t="s">
-        <v>678</v>
-      </c>
-      <c r="E142" t="s">
-        <v>679</v>
-      </c>
-      <c r="F142" t="s">
-        <v>14</v>
-      </c>
-      <c r="G142">
-        <v>2001</v>
-      </c>
-      <c r="H142" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A143" t="s">
-        <v>680</v>
-      </c>
-      <c r="B143" t="s">
-        <v>681</v>
-      </c>
-      <c r="C143" t="s">
-        <v>682</v>
-      </c>
-      <c r="D143" t="s">
-        <v>683</v>
-      </c>
-      <c r="E143" t="s">
-        <v>684</v>
-      </c>
-      <c r="F143" t="s">
-        <v>14</v>
-      </c>
-      <c r="G143">
-        <v>1977</v>
-      </c>
-      <c r="H143" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A144" t="s">
-        <v>685</v>
-      </c>
-      <c r="B144" t="s">
-        <v>686</v>
-      </c>
-      <c r="C144" t="s">
-        <v>687</v>
-      </c>
-      <c r="D144" t="s">
-        <v>688</v>
-      </c>
-      <c r="E144" t="s">
-        <v>433</v>
-      </c>
-      <c r="F144" t="s">
-        <v>14</v>
-      </c>
-      <c r="G144">
-        <v>2006</v>
-      </c>
-      <c r="H144" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A145" t="s">
-        <v>689</v>
-      </c>
-      <c r="B145" t="s">
-        <v>690</v>
-      </c>
-      <c r="C145" t="s">
-        <v>691</v>
-      </c>
-      <c r="D145" t="s">
-        <v>692</v>
-      </c>
-      <c r="E145" t="s">
-        <v>693</v>
-      </c>
-      <c r="F145" t="s">
-        <v>21</v>
-      </c>
-      <c r="G145">
-        <v>2017</v>
-      </c>
-      <c r="H145" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A146" t="s">
-        <v>694</v>
-      </c>
-      <c r="B146" t="s">
-        <v>695</v>
-      </c>
-      <c r="C146" t="s">
-        <v>696</v>
-      </c>
-      <c r="D146" t="s">
-        <v>697</v>
-      </c>
-      <c r="E146" t="s">
-        <v>698</v>
-      </c>
-      <c r="F146" t="s">
-        <v>21</v>
-      </c>
-      <c r="G146">
-        <v>1980</v>
-      </c>
-      <c r="H146" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A147" t="s">
-        <v>699</v>
-      </c>
-      <c r="B147" t="s">
-        <v>700</v>
-      </c>
-      <c r="C147" t="s">
-        <v>701</v>
-      </c>
-      <c r="D147" t="s">
-        <v>702</v>
-      </c>
-      <c r="E147" t="s">
-        <v>703</v>
-      </c>
-      <c r="F147" t="s">
-        <v>14</v>
-      </c>
-      <c r="G147">
-        <v>2021</v>
-      </c>
-      <c r="H147" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A148" t="s">
-        <v>704</v>
-      </c>
-      <c r="B148" t="s">
-        <v>705</v>
-      </c>
-      <c r="C148" t="s">
-        <v>706</v>
-      </c>
-      <c r="D148" t="s">
-        <v>707</v>
-      </c>
-      <c r="E148" t="s">
-        <v>463</v>
-      </c>
-      <c r="F148" t="s">
-        <v>14</v>
-      </c>
-      <c r="G148">
-        <v>1996</v>
-      </c>
-      <c r="H148" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A149" t="s">
-        <v>708</v>
-      </c>
-      <c r="B149" t="s">
-        <v>709</v>
-      </c>
-      <c r="C149" t="s">
-        <v>710</v>
-      </c>
-      <c r="D149" t="s">
-        <v>711</v>
-      </c>
-      <c r="E149" t="s">
-        <v>488</v>
-      </c>
-      <c r="F149" t="s">
-        <v>14</v>
-      </c>
-      <c r="G149">
-        <v>2011</v>
-      </c>
-      <c r="H149" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A150" t="s">
-        <v>712</v>
-      </c>
-      <c r="B150" t="s">
-        <v>713</v>
-      </c>
-      <c r="C150" t="s">
-        <v>714</v>
-      </c>
-      <c r="D150" t="s">
-        <v>715</v>
-      </c>
-      <c r="E150" t="s">
-        <v>716</v>
-      </c>
-      <c r="F150" t="s">
-        <v>14</v>
-      </c>
-      <c r="G150">
-        <v>2016</v>
-      </c>
-      <c r="H150" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A151" t="s">
-        <v>717</v>
-      </c>
-      <c r="B151" t="s">
-        <v>718</v>
-      </c>
-      <c r="C151" t="s">
-        <v>719</v>
-      </c>
-      <c r="D151" t="s">
-        <v>720</v>
-      </c>
-      <c r="E151" t="s">
-        <v>721</v>
-      </c>
-      <c r="F151" t="s">
-        <v>21</v>
-      </c>
-      <c r="G151">
-        <v>2004</v>
-      </c>
-      <c r="H151" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A152" t="s">
-        <v>722</v>
-      </c>
-      <c r="B152" t="s">
-        <v>723</v>
-      </c>
-      <c r="C152" t="s">
-        <v>724</v>
-      </c>
-      <c r="D152" t="s">
-        <v>725</v>
-      </c>
-      <c r="E152" t="s">
-        <v>726</v>
-      </c>
-      <c r="F152" t="s">
-        <v>21</v>
-      </c>
-      <c r="G152">
-        <v>1998</v>
-      </c>
-      <c r="H152" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A153" t="s">
-        <v>727</v>
-      </c>
-      <c r="B153" t="s">
-        <v>576</v>
-      </c>
-      <c r="C153" t="s">
-        <v>728</v>
-      </c>
-      <c r="D153" t="s">
-        <v>578</v>
-      </c>
-      <c r="E153" t="s">
-        <v>729</v>
-      </c>
-      <c r="F153" t="s">
-        <v>21</v>
-      </c>
-      <c r="G153">
-        <v>1985</v>
       </c>
       <c r="H153" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A154" t="s">
-        <v>730</v>
+      <c r="A154">
+        <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>731</v>
+        <v>686</v>
       </c>
       <c r="C154" t="s">
-        <v>732</v>
+        <v>687</v>
       </c>
       <c r="D154" t="s">
-        <v>733</v>
+        <v>688</v>
       </c>
       <c r="E154" t="s">
-        <v>734</v>
+        <v>433</v>
       </c>
       <c r="F154" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G154">
-        <v>1985</v>
+        <v>2006</v>
       </c>
       <c r="H154" t="s">
-        <v>955</v>
+        <v>985</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A155" t="s">
-        <v>735</v>
+      <c r="A155">
+        <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>736</v>
+        <v>248</v>
       </c>
       <c r="C155" t="s">
-        <v>737</v>
+        <v>249</v>
       </c>
       <c r="D155" t="s">
-        <v>738</v>
+        <v>250</v>
       </c>
       <c r="E155" t="s">
-        <v>739</v>
+        <v>69</v>
       </c>
       <c r="F155" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G155">
+        <v>1983</v>
+      </c>
+      <c r="H155" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>286</v>
+      </c>
+      <c r="C156" t="s">
+        <v>287</v>
+      </c>
+      <c r="D156" t="s">
+        <v>288</v>
+      </c>
+      <c r="E156" t="s">
+        <v>289</v>
+      </c>
+      <c r="F156" t="s">
+        <v>14</v>
+      </c>
+      <c r="G156">
+        <v>2005</v>
+      </c>
+      <c r="H156" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>118</v>
+      </c>
+      <c r="C157" t="s">
+        <v>119</v>
+      </c>
+      <c r="D157" t="s">
+        <v>120</v>
+      </c>
+      <c r="E157" t="s">
+        <v>121</v>
+      </c>
+      <c r="F157" t="s">
+        <v>21</v>
+      </c>
+      <c r="G157">
         <v>2024</v>
       </c>
-      <c r="H155" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A156" t="s">
-        <v>740</v>
-      </c>
-      <c r="B156" t="s">
-        <v>741</v>
-      </c>
-      <c r="C156" t="s">
-        <v>742</v>
-      </c>
-      <c r="D156" t="s">
-        <v>743</v>
-      </c>
-      <c r="E156" t="s">
-        <v>744</v>
-      </c>
-      <c r="F156" t="s">
-        <v>21</v>
-      </c>
-      <c r="G156">
-        <v>1985</v>
-      </c>
-      <c r="H156" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A157" t="s">
-        <v>745</v>
-      </c>
-      <c r="B157" t="s">
-        <v>746</v>
-      </c>
-      <c r="C157" t="s">
-        <v>747</v>
-      </c>
-      <c r="D157" t="s">
-        <v>748</v>
-      </c>
-      <c r="E157" t="s">
-        <v>749</v>
-      </c>
-      <c r="F157" t="s">
-        <v>21</v>
-      </c>
-      <c r="G157">
+      <c r="H157" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>387</v>
+      </c>
+      <c r="C158" t="s">
+        <v>388</v>
+      </c>
+      <c r="D158" t="s">
+        <v>389</v>
+      </c>
+      <c r="E158" t="s">
+        <v>246</v>
+      </c>
+      <c r="F158" t="s">
+        <v>14</v>
+      </c>
+      <c r="G158">
+        <v>2002</v>
+      </c>
+      <c r="H158" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>912</v>
+      </c>
+      <c r="C159" t="s">
+        <v>913</v>
+      </c>
+      <c r="D159" t="s">
+        <v>914</v>
+      </c>
+      <c r="E159" t="s">
+        <v>915</v>
+      </c>
+      <c r="F159" t="s">
+        <v>21</v>
+      </c>
+      <c r="G159">
+        <v>1977</v>
+      </c>
+      <c r="H159" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>101</v>
+      </c>
+      <c r="C160" t="s">
+        <v>102</v>
+      </c>
+      <c r="D160" t="s">
+        <v>103</v>
+      </c>
+      <c r="E160" t="s">
+        <v>104</v>
+      </c>
+      <c r="F160" t="s">
+        <v>14</v>
+      </c>
+      <c r="G160">
+        <v>2015</v>
+      </c>
+      <c r="H160" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>561</v>
+      </c>
+      <c r="C161" t="s">
+        <v>562</v>
+      </c>
+      <c r="D161" t="s">
+        <v>563</v>
+      </c>
+      <c r="E161" t="s">
+        <v>564</v>
+      </c>
+      <c r="F161" t="s">
+        <v>14</v>
+      </c>
+      <c r="G161">
+        <v>1981</v>
+      </c>
+      <c r="H161" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>930</v>
+      </c>
+      <c r="C162" t="s">
+        <v>931</v>
+      </c>
+      <c r="D162" t="s">
+        <v>932</v>
+      </c>
+      <c r="E162" t="s">
+        <v>933</v>
+      </c>
+      <c r="F162" t="s">
+        <v>14</v>
+      </c>
+      <c r="G162">
+        <v>1990</v>
+      </c>
+      <c r="H162" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>54</v>
+      </c>
+      <c r="C163" t="s">
+        <v>55</v>
+      </c>
+      <c r="D163" t="s">
+        <v>56</v>
+      </c>
+      <c r="E163" t="s">
+        <v>57</v>
+      </c>
+      <c r="F163" t="s">
+        <v>14</v>
+      </c>
+      <c r="G163">
+        <v>2010</v>
+      </c>
+      <c r="H163" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>236</v>
+      </c>
+      <c r="C164" t="s">
+        <v>237</v>
+      </c>
+      <c r="D164" t="s">
+        <v>238</v>
+      </c>
+      <c r="E164" t="s">
+        <v>239</v>
+      </c>
+      <c r="F164" t="s">
+        <v>21</v>
+      </c>
+      <c r="G164">
+        <v>2020</v>
+      </c>
+      <c r="H164" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>771</v>
+      </c>
+      <c r="C165" t="s">
+        <v>772</v>
+      </c>
+      <c r="D165" t="s">
+        <v>773</v>
+      </c>
+      <c r="E165" t="s">
+        <v>774</v>
+      </c>
+      <c r="F165" t="s">
+        <v>21</v>
+      </c>
+      <c r="G165">
         <v>1993</v>
       </c>
-      <c r="H157" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A158" t="s">
-        <v>750</v>
-      </c>
-      <c r="B158" t="s">
-        <v>751</v>
-      </c>
-      <c r="C158" t="s">
-        <v>752</v>
-      </c>
-      <c r="D158" t="s">
-        <v>753</v>
-      </c>
-      <c r="E158" t="s">
-        <v>754</v>
-      </c>
-      <c r="F158" t="s">
-        <v>14</v>
-      </c>
-      <c r="G158">
-        <v>2019</v>
-      </c>
-      <c r="H158" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A159" t="s">
-        <v>755</v>
-      </c>
-      <c r="B159" t="s">
-        <v>709</v>
-      </c>
-      <c r="C159" t="s">
-        <v>431</v>
-      </c>
-      <c r="D159" t="s">
-        <v>711</v>
-      </c>
-      <c r="E159" t="s">
-        <v>433</v>
-      </c>
-      <c r="F159" t="s">
-        <v>14</v>
-      </c>
-      <c r="G159">
-        <v>1997</v>
-      </c>
-      <c r="H159" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A160" t="s">
-        <v>756</v>
-      </c>
-      <c r="B160" t="s">
-        <v>757</v>
-      </c>
-      <c r="C160" t="s">
-        <v>758</v>
-      </c>
-      <c r="D160" t="s">
-        <v>759</v>
-      </c>
-      <c r="E160" t="s">
-        <v>760</v>
-      </c>
-      <c r="F160" t="s">
-        <v>21</v>
-      </c>
-      <c r="G160">
-        <v>2008</v>
-      </c>
-      <c r="H160" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A161" t="s">
-        <v>761</v>
-      </c>
-      <c r="B161" t="s">
-        <v>762</v>
-      </c>
-      <c r="C161" t="s">
-        <v>763</v>
-      </c>
-      <c r="D161" t="s">
-        <v>764</v>
-      </c>
-      <c r="E161" t="s">
-        <v>716</v>
-      </c>
-      <c r="F161" t="s">
-        <v>14</v>
-      </c>
-      <c r="G161">
-        <v>2014</v>
-      </c>
-      <c r="H161" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A162" t="s">
-        <v>765</v>
-      </c>
-      <c r="B162" t="s">
-        <v>766</v>
-      </c>
-      <c r="C162" t="s">
-        <v>767</v>
-      </c>
-      <c r="D162" t="s">
-        <v>768</v>
-      </c>
-      <c r="E162" t="s">
-        <v>769</v>
-      </c>
-      <c r="F162" t="s">
-        <v>21</v>
-      </c>
-      <c r="G162">
-        <v>1988</v>
-      </c>
-      <c r="H162" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A163" t="s">
-        <v>770</v>
-      </c>
-      <c r="B163" t="s">
-        <v>771</v>
-      </c>
-      <c r="C163" t="s">
-        <v>772</v>
-      </c>
-      <c r="D163" t="s">
-        <v>773</v>
-      </c>
-      <c r="E163" t="s">
-        <v>774</v>
-      </c>
-      <c r="F163" t="s">
-        <v>21</v>
-      </c>
-      <c r="G163">
-        <v>1993</v>
-      </c>
-      <c r="H163" t="s">
+      <c r="H165" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A164" t="s">
-        <v>775</v>
-      </c>
-      <c r="B164" t="s">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>294</v>
+      </c>
+      <c r="C166" t="s">
+        <v>295</v>
+      </c>
+      <c r="D166" t="s">
+        <v>296</v>
+      </c>
+      <c r="E166" t="s">
+        <v>263</v>
+      </c>
+      <c r="F166" t="s">
+        <v>21</v>
+      </c>
+      <c r="G166">
+        <v>1998</v>
+      </c>
+      <c r="H166" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>352</v>
+      </c>
+      <c r="C167" t="s">
+        <v>353</v>
+      </c>
+      <c r="D167" t="s">
+        <v>354</v>
+      </c>
+      <c r="E167" t="s">
+        <v>355</v>
+      </c>
+      <c r="F167" t="s">
+        <v>14</v>
+      </c>
+      <c r="G167">
+        <v>1989</v>
+      </c>
+      <c r="H167" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>338</v>
+      </c>
+      <c r="C168" t="s">
+        <v>339</v>
+      </c>
+      <c r="D168" t="s">
+        <v>340</v>
+      </c>
+      <c r="E168" t="s">
+        <v>341</v>
+      </c>
+      <c r="F168" t="s">
+        <v>14</v>
+      </c>
+      <c r="G168">
+        <v>2001</v>
+      </c>
+      <c r="H168" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
         <v>776</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C169" t="s">
         <v>777</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D169" t="s">
         <v>778</v>
       </c>
-      <c r="E164" t="s">
+      <c r="E169" t="s">
         <v>779</v>
       </c>
-      <c r="F164" t="s">
-        <v>14</v>
-      </c>
-      <c r="G164">
+      <c r="F169" t="s">
+        <v>14</v>
+      </c>
+      <c r="G169">
         <v>1975</v>
       </c>
-      <c r="H164" t="s">
+      <c r="H169" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A165" t="s">
-        <v>780</v>
-      </c>
-      <c r="B165" t="s">
-        <v>781</v>
-      </c>
-      <c r="C165" t="s">
-        <v>782</v>
-      </c>
-      <c r="D165" t="s">
-        <v>783</v>
-      </c>
-      <c r="E165" t="s">
-        <v>784</v>
-      </c>
-      <c r="F165" t="s">
-        <v>14</v>
-      </c>
-      <c r="G165">
-        <v>2024</v>
-      </c>
-      <c r="H165" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A166" t="s">
-        <v>785</v>
-      </c>
-      <c r="B166" t="s">
-        <v>786</v>
-      </c>
-      <c r="C166" t="s">
-        <v>787</v>
-      </c>
-      <c r="D166" t="s">
-        <v>788</v>
-      </c>
-      <c r="E166" t="s">
-        <v>789</v>
-      </c>
-      <c r="F166" t="s">
-        <v>21</v>
-      </c>
-      <c r="G166">
-        <v>1981</v>
-      </c>
-      <c r="H166" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A167" t="s">
-        <v>790</v>
-      </c>
-      <c r="B167" t="s">
-        <v>791</v>
-      </c>
-      <c r="C167" t="s">
-        <v>792</v>
-      </c>
-      <c r="D167" t="s">
-        <v>793</v>
-      </c>
-      <c r="E167" t="s">
-        <v>794</v>
-      </c>
-      <c r="F167" t="s">
-        <v>14</v>
-      </c>
-      <c r="G167">
-        <v>2004</v>
-      </c>
-      <c r="H167" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A168" t="s">
-        <v>795</v>
-      </c>
-      <c r="B168" t="s">
-        <v>661</v>
-      </c>
-      <c r="C168" t="s">
-        <v>796</v>
-      </c>
-      <c r="D168" t="s">
-        <v>663</v>
-      </c>
-      <c r="E168" t="s">
-        <v>797</v>
-      </c>
-      <c r="F168" t="s">
-        <v>14</v>
-      </c>
-      <c r="G168">
-        <v>1996</v>
-      </c>
-      <c r="H168" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A169" t="s">
-        <v>798</v>
-      </c>
-      <c r="B169" t="s">
-        <v>799</v>
-      </c>
-      <c r="C169" t="s">
-        <v>800</v>
-      </c>
-      <c r="D169" t="s">
-        <v>801</v>
-      </c>
-      <c r="E169" t="s">
-        <v>802</v>
-      </c>
-      <c r="F169" t="s">
-        <v>14</v>
-      </c>
-      <c r="G169">
-        <v>2019</v>
-      </c>
-      <c r="H169" t="s">
-        <v>967</v>
-      </c>
-    </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A170" t="s">
-        <v>803</v>
+      <c r="A170">
+        <v>169</v>
       </c>
       <c r="B170" t="s">
         <v>225</v>
       </c>
       <c r="C170" t="s">
-        <v>804</v>
+        <v>226</v>
       </c>
       <c r="D170" t="s">
         <v>227</v>
       </c>
       <c r="E170" t="s">
-        <v>805</v>
+        <v>228</v>
       </c>
       <c r="F170" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G170">
-        <v>1993</v>
+        <v>2016</v>
       </c>
       <c r="H170" t="s">
-        <v>951</v>
+        <v>987</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A171" t="s">
-        <v>806</v>
+      <c r="A171">
+        <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>807</v>
+        <v>188</v>
       </c>
       <c r="C171" t="s">
-        <v>808</v>
+        <v>189</v>
       </c>
       <c r="D171" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="E171" t="s">
-        <v>809</v>
+        <v>191</v>
       </c>
       <c r="F171" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G171">
-        <v>1993</v>
+        <v>2024</v>
       </c>
       <c r="H171" t="s">
-        <v>949</v>
+        <v>973</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A172" t="s">
-        <v>810</v>
+      <c r="A172">
+        <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>811</v>
+        <v>435</v>
       </c>
       <c r="C172" t="s">
-        <v>812</v>
+        <v>436</v>
       </c>
       <c r="D172" t="s">
-        <v>813</v>
+        <v>437</v>
       </c>
       <c r="E172" t="s">
-        <v>814</v>
+        <v>438</v>
       </c>
       <c r="F172" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G172">
-        <v>2001</v>
+        <v>1991</v>
       </c>
       <c r="H172" t="s">
-        <v>947</v>
+        <v>973</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A173" t="s">
-        <v>815</v>
+      <c r="A173">
+        <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>816</v>
+        <v>128</v>
       </c>
       <c r="C173" t="s">
-        <v>817</v>
+        <v>129</v>
       </c>
       <c r="D173" t="s">
-        <v>818</v>
+        <v>130</v>
       </c>
       <c r="E173" t="s">
-        <v>819</v>
+        <v>131</v>
       </c>
       <c r="F173" t="s">
         <v>14</v>
       </c>
       <c r="G173">
-        <v>1985</v>
+        <v>1997</v>
       </c>
       <c r="H173" t="s">
-        <v>963</v>
+        <v>973</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A174" t="s">
-        <v>820</v>
+      <c r="A174">
+        <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>590</v>
+        <v>357</v>
       </c>
       <c r="C174" t="s">
-        <v>821</v>
+        <v>358</v>
       </c>
       <c r="D174" t="s">
-        <v>592</v>
+        <v>359</v>
       </c>
       <c r="E174" t="s">
-        <v>822</v>
+        <v>360</v>
       </c>
       <c r="F174" t="s">
         <v>14</v>
       </c>
       <c r="G174">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="H174" t="s">
-        <v>957</v>
+        <v>973</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A175" t="s">
-        <v>823</v>
+      <c r="A175">
+        <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>824</v>
+        <v>880</v>
       </c>
       <c r="C175" t="s">
-        <v>825</v>
+        <v>881</v>
       </c>
       <c r="D175" t="s">
-        <v>826</v>
+        <v>882</v>
       </c>
       <c r="E175" t="s">
-        <v>827</v>
+        <v>883</v>
       </c>
       <c r="F175" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G175">
+        <v>2020</v>
+      </c>
+      <c r="H175" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>608</v>
+      </c>
+      <c r="C176" t="s">
+        <v>609</v>
+      </c>
+      <c r="D176" t="s">
+        <v>610</v>
+      </c>
+      <c r="E176" t="s">
+        <v>345</v>
+      </c>
+      <c r="F176" t="s">
+        <v>14</v>
+      </c>
+      <c r="G176">
         <v>1999</v>
       </c>
-      <c r="H175" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A176" t="s">
-        <v>828</v>
-      </c>
-      <c r="B176" t="s">
-        <v>829</v>
-      </c>
-      <c r="C176" t="s">
-        <v>830</v>
-      </c>
-      <c r="D176" t="s">
-        <v>831</v>
-      </c>
-      <c r="E176" t="s">
-        <v>832</v>
-      </c>
-      <c r="F176" t="s">
-        <v>14</v>
-      </c>
-      <c r="G176">
-        <v>1996</v>
-      </c>
       <c r="H176" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A177" t="s">
-        <v>833</v>
+      <c r="A177">
+        <v>176</v>
       </c>
       <c r="B177" t="s">
         <v>834</v>
@@ -8173,632 +8172,639 @@
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A178" t="s">
-        <v>838</v>
+      <c r="A178">
+        <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>839</v>
+        <v>425</v>
       </c>
       <c r="C178" t="s">
-        <v>840</v>
+        <v>426</v>
       </c>
       <c r="D178" t="s">
-        <v>841</v>
+        <v>427</v>
       </c>
       <c r="E178" t="s">
-        <v>842</v>
+        <v>428</v>
       </c>
       <c r="F178" t="s">
         <v>14</v>
       </c>
       <c r="G178">
-        <v>1994</v>
+        <v>2006</v>
       </c>
       <c r="H178" t="s">
-        <v>953</v>
+        <v>973</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A179" t="s">
-        <v>843</v>
+      <c r="A179">
+        <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>791</v>
+        <v>855</v>
       </c>
       <c r="C179" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
       <c r="D179" t="s">
-        <v>793</v>
+        <v>857</v>
       </c>
       <c r="E179" t="s">
-        <v>448</v>
+        <v>858</v>
       </c>
       <c r="F179" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G179">
-        <v>1986</v>
+        <v>2024</v>
       </c>
       <c r="H179" t="s">
-        <v>965</v>
+        <v>973</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A180" t="s">
-        <v>845</v>
+      <c r="A180">
+        <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>846</v>
+        <v>695</v>
       </c>
       <c r="C180" t="s">
-        <v>847</v>
+        <v>696</v>
       </c>
       <c r="D180" t="s">
-        <v>759</v>
+        <v>697</v>
       </c>
       <c r="E180" t="s">
-        <v>848</v>
+        <v>698</v>
       </c>
       <c r="F180" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G180">
-        <v>1999</v>
+        <v>1980</v>
       </c>
       <c r="H180" t="s">
-        <v>947</v>
+        <v>973</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A181" t="s">
-        <v>849</v>
+      <c r="A181">
+        <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>850</v>
+        <v>566</v>
       </c>
       <c r="C181" t="s">
-        <v>851</v>
+        <v>567</v>
       </c>
       <c r="D181" t="s">
-        <v>852</v>
+        <v>568</v>
       </c>
       <c r="E181" t="s">
-        <v>853</v>
+        <v>569</v>
       </c>
       <c r="F181" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G181">
-        <v>1980</v>
+        <v>1987</v>
       </c>
       <c r="H181" t="s">
-        <v>945</v>
+        <v>973</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A182" t="s">
-        <v>854</v>
+      <c r="A182">
+        <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>855</v>
+        <v>450</v>
       </c>
       <c r="C182" t="s">
-        <v>856</v>
+        <v>451</v>
       </c>
       <c r="D182" t="s">
-        <v>857</v>
+        <v>452</v>
       </c>
       <c r="E182" t="s">
-        <v>858</v>
+        <v>453</v>
       </c>
       <c r="F182" t="s">
         <v>21</v>
       </c>
       <c r="G182">
-        <v>2024</v>
+        <v>1982</v>
       </c>
       <c r="H182" t="s">
         <v>973</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A183" t="s">
-        <v>859</v>
+      <c r="A183">
+        <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>860</v>
+        <v>60</v>
       </c>
       <c r="C183" t="s">
-        <v>861</v>
+        <v>240</v>
       </c>
       <c r="D183" t="s">
-        <v>311</v>
+        <v>62</v>
       </c>
       <c r="E183" t="s">
-        <v>862</v>
+        <v>241</v>
       </c>
       <c r="F183" t="s">
         <v>14</v>
       </c>
       <c r="G183">
-        <v>1979</v>
+        <v>2015</v>
       </c>
       <c r="H183" t="s">
-        <v>959</v>
+        <v>973</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A184" t="s">
-        <v>863</v>
+      <c r="A184">
+        <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>864</v>
+        <v>554</v>
       </c>
       <c r="C184" t="s">
-        <v>865</v>
+        <v>555</v>
       </c>
       <c r="D184" t="s">
-        <v>866</v>
+        <v>556</v>
       </c>
       <c r="E184" t="s">
-        <v>867</v>
+        <v>557</v>
       </c>
       <c r="F184" t="s">
         <v>14</v>
       </c>
       <c r="G184">
-        <v>2008</v>
+        <v>1982</v>
       </c>
       <c r="H184" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A185" t="s">
-        <v>868</v>
+      <c r="A185">
+        <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>869</v>
+        <v>183</v>
       </c>
       <c r="C185" t="s">
-        <v>870</v>
+        <v>184</v>
       </c>
       <c r="D185" t="s">
-        <v>871</v>
+        <v>185</v>
       </c>
       <c r="E185" t="s">
-        <v>734</v>
+        <v>186</v>
       </c>
       <c r="F185" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G185">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="H185" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A186" t="s">
-        <v>872</v>
+      <c r="A186">
+        <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>225</v>
+        <v>347</v>
       </c>
       <c r="C186" t="s">
-        <v>873</v>
+        <v>348</v>
       </c>
       <c r="D186" t="s">
-        <v>227</v>
+        <v>349</v>
       </c>
       <c r="E186" t="s">
-        <v>874</v>
+        <v>350</v>
       </c>
       <c r="F186" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G186">
-        <v>2019</v>
+        <v>2002</v>
       </c>
       <c r="H186" t="s">
-        <v>955</v>
+        <v>963</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A187" t="s">
-        <v>875</v>
+      <c r="A187">
+        <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>876</v>
+        <v>134</v>
       </c>
       <c r="C187" t="s">
-        <v>877</v>
+        <v>135</v>
       </c>
       <c r="D187" t="s">
-        <v>878</v>
+        <v>136</v>
       </c>
       <c r="E187" t="s">
-        <v>350</v>
+        <v>137</v>
       </c>
       <c r="F187" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G187">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="H187" t="s">
-        <v>977</v>
+        <v>963</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A188" t="s">
-        <v>879</v>
+      <c r="A188">
+        <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>880</v>
+        <v>816</v>
       </c>
       <c r="C188" t="s">
-        <v>881</v>
+        <v>817</v>
       </c>
       <c r="D188" t="s">
-        <v>882</v>
+        <v>818</v>
       </c>
       <c r="E188" t="s">
-        <v>883</v>
+        <v>819</v>
       </c>
       <c r="F188" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G188">
-        <v>2020</v>
+        <v>1985</v>
       </c>
       <c r="H188" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A189" t="s">
-        <v>884</v>
+      <c r="A189">
+        <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>885</v>
+        <v>323</v>
       </c>
       <c r="C189" t="s">
-        <v>886</v>
+        <v>319</v>
       </c>
       <c r="D189" t="s">
-        <v>887</v>
+        <v>324</v>
       </c>
       <c r="E189" t="s">
-        <v>888</v>
+        <v>321</v>
       </c>
       <c r="F189" t="s">
         <v>14</v>
       </c>
       <c r="G189">
-        <v>2018</v>
+        <v>2006</v>
       </c>
       <c r="H189" t="s">
-        <v>959</v>
+        <v>963</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A190" t="s">
-        <v>889</v>
+      <c r="A190">
+        <v>189</v>
       </c>
       <c r="B190" t="s">
         <v>377</v>
       </c>
       <c r="C190" t="s">
-        <v>890</v>
+        <v>378</v>
       </c>
       <c r="D190" t="s">
         <v>379</v>
       </c>
       <c r="E190" t="s">
-        <v>891</v>
+        <v>380</v>
       </c>
       <c r="F190" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G190">
+        <v>1987</v>
+      </c>
+      <c r="H190" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>139</v>
+      </c>
+      <c r="C191" t="s">
+        <v>307</v>
+      </c>
+      <c r="D191" t="s">
+        <v>141</v>
+      </c>
+      <c r="E191" t="s">
+        <v>308</v>
+      </c>
+      <c r="F191" t="s">
+        <v>14</v>
+      </c>
+      <c r="G191">
+        <v>1992</v>
+      </c>
+      <c r="H191" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>60</v>
+      </c>
+      <c r="C192" t="s">
+        <v>61</v>
+      </c>
+      <c r="D192" t="s">
+        <v>62</v>
+      </c>
+      <c r="E192" t="s">
+        <v>63</v>
+      </c>
+      <c r="F192" t="s">
+        <v>14</v>
+      </c>
+      <c r="G192">
+        <v>1977</v>
+      </c>
+      <c r="H192" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>107</v>
+      </c>
+      <c r="C193" t="s">
+        <v>108</v>
+      </c>
+      <c r="D193" t="s">
+        <v>109</v>
+      </c>
+      <c r="E193" t="s">
+        <v>110</v>
+      </c>
+      <c r="F193" t="s">
+        <v>21</v>
+      </c>
+      <c r="G193">
+        <v>1977</v>
+      </c>
+      <c r="H193" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>302</v>
+      </c>
+      <c r="C194" t="s">
+        <v>645</v>
+      </c>
+      <c r="D194" t="s">
+        <v>304</v>
+      </c>
+      <c r="E194" t="s">
+        <v>646</v>
+      </c>
+      <c r="F194" t="s">
+        <v>14</v>
+      </c>
+      <c r="G194">
+        <v>1988</v>
+      </c>
+      <c r="H194" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>232</v>
+      </c>
+      <c r="C195" t="s">
+        <v>233</v>
+      </c>
+      <c r="D195" t="s">
+        <v>234</v>
+      </c>
+      <c r="E195" t="s">
+        <v>235</v>
+      </c>
+      <c r="F195" t="s">
+        <v>14</v>
+      </c>
+      <c r="G195">
+        <v>1983</v>
+      </c>
+      <c r="H195" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>430</v>
+      </c>
+      <c r="C196" t="s">
+        <v>431</v>
+      </c>
+      <c r="D196" t="s">
+        <v>432</v>
+      </c>
+      <c r="E196" t="s">
+        <v>433</v>
+      </c>
+      <c r="F196" t="s">
+        <v>14</v>
+      </c>
+      <c r="G196">
+        <v>1978</v>
+      </c>
+      <c r="H196" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>415</v>
+      </c>
+      <c r="C197" t="s">
+        <v>416</v>
+      </c>
+      <c r="D197" t="s">
+        <v>417</v>
+      </c>
+      <c r="E197" t="s">
+        <v>418</v>
+      </c>
+      <c r="F197" t="s">
+        <v>14</v>
+      </c>
+      <c r="G197">
+        <v>2002</v>
+      </c>
+      <c r="H197" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>420</v>
+      </c>
+      <c r="C198" t="s">
+        <v>421</v>
+      </c>
+      <c r="D198" t="s">
+        <v>422</v>
+      </c>
+      <c r="E198" t="s">
+        <v>423</v>
+      </c>
+      <c r="F198" t="s">
+        <v>14</v>
+      </c>
+      <c r="G198">
+        <v>1990</v>
+      </c>
+      <c r="H198" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>603</v>
+      </c>
+      <c r="C199" t="s">
+        <v>604</v>
+      </c>
+      <c r="D199" t="s">
+        <v>605</v>
+      </c>
+      <c r="E199" t="s">
+        <v>606</v>
+      </c>
+      <c r="F199" t="s">
+        <v>14</v>
+      </c>
+      <c r="G199">
+        <v>1988</v>
+      </c>
+      <c r="H199" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>786</v>
+      </c>
+      <c r="C200" t="s">
+        <v>787</v>
+      </c>
+      <c r="D200" t="s">
+        <v>788</v>
+      </c>
+      <c r="E200" t="s">
+        <v>789</v>
+      </c>
+      <c r="F200" t="s">
+        <v>21</v>
+      </c>
+      <c r="G200">
         <v>1981</v>
       </c>
-      <c r="H190" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A191" t="s">
-        <v>892</v>
-      </c>
-      <c r="B191" t="s">
-        <v>893</v>
-      </c>
-      <c r="C191" t="s">
-        <v>894</v>
-      </c>
-      <c r="D191" t="s">
-        <v>895</v>
-      </c>
-      <c r="E191" t="s">
-        <v>896</v>
-      </c>
-      <c r="F191" t="s">
-        <v>14</v>
-      </c>
-      <c r="G191">
-        <v>1989</v>
-      </c>
-      <c r="H191" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A192" t="s">
-        <v>897</v>
-      </c>
-      <c r="B192" t="s">
-        <v>898</v>
-      </c>
-      <c r="C192" t="s">
-        <v>899</v>
-      </c>
-      <c r="D192" t="s">
-        <v>900</v>
-      </c>
-      <c r="E192" t="s">
-        <v>507</v>
-      </c>
-      <c r="F192" t="s">
-        <v>21</v>
-      </c>
-      <c r="G192">
-        <v>1983</v>
-      </c>
-      <c r="H192" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A193" t="s">
-        <v>901</v>
-      </c>
-      <c r="B193" t="s">
-        <v>902</v>
-      </c>
-      <c r="C193" t="s">
-        <v>903</v>
-      </c>
-      <c r="D193" t="s">
-        <v>904</v>
-      </c>
-      <c r="E193" t="s">
-        <v>905</v>
-      </c>
-      <c r="F193" t="s">
-        <v>21</v>
-      </c>
-      <c r="G193">
-        <v>1981</v>
-      </c>
-      <c r="H193" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A194" t="s">
-        <v>906</v>
-      </c>
-      <c r="B194" t="s">
-        <v>907</v>
-      </c>
-      <c r="C194" t="s">
-        <v>908</v>
-      </c>
-      <c r="D194" t="s">
-        <v>909</v>
-      </c>
-      <c r="E194" t="s">
-        <v>910</v>
-      </c>
-      <c r="F194" t="s">
-        <v>14</v>
-      </c>
-      <c r="G194">
-        <v>2011</v>
-      </c>
-      <c r="H194" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A195" t="s">
-        <v>911</v>
-      </c>
-      <c r="B195" t="s">
-        <v>912</v>
-      </c>
-      <c r="C195" t="s">
-        <v>913</v>
-      </c>
-      <c r="D195" t="s">
-        <v>914</v>
-      </c>
-      <c r="E195" t="s">
-        <v>915</v>
-      </c>
-      <c r="F195" t="s">
-        <v>21</v>
-      </c>
-      <c r="G195">
-        <v>1977</v>
-      </c>
-      <c r="H195" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A196" t="s">
-        <v>916</v>
-      </c>
-      <c r="B196" t="s">
-        <v>917</v>
-      </c>
-      <c r="C196" t="s">
-        <v>918</v>
-      </c>
-      <c r="D196" t="s">
-        <v>919</v>
-      </c>
-      <c r="E196" t="s">
-        <v>920</v>
-      </c>
-      <c r="F196" t="s">
-        <v>14</v>
-      </c>
-      <c r="G196">
-        <v>1985</v>
-      </c>
-      <c r="H196" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A197" t="s">
-        <v>921</v>
-      </c>
-      <c r="B197" t="s">
-        <v>922</v>
-      </c>
-      <c r="C197" t="s">
-        <v>923</v>
-      </c>
-      <c r="D197" t="s">
-        <v>924</v>
-      </c>
-      <c r="E197" t="s">
-        <v>925</v>
-      </c>
-      <c r="F197" t="s">
-        <v>14</v>
-      </c>
-      <c r="G197">
-        <v>2006</v>
-      </c>
-      <c r="H197" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A198" t="s">
-        <v>926</v>
-      </c>
-      <c r="B198" t="s">
-        <v>30</v>
-      </c>
-      <c r="C198" t="s">
-        <v>927</v>
-      </c>
-      <c r="D198" t="s">
-        <v>32</v>
-      </c>
-      <c r="E198" t="s">
-        <v>928</v>
-      </c>
-      <c r="F198" t="s">
-        <v>14</v>
-      </c>
-      <c r="G198">
-        <v>2005</v>
-      </c>
-      <c r="H198" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A199" t="s">
-        <v>929</v>
-      </c>
-      <c r="B199" t="s">
-        <v>930</v>
-      </c>
-      <c r="C199" t="s">
-        <v>931</v>
-      </c>
-      <c r="D199" t="s">
-        <v>932</v>
-      </c>
-      <c r="E199" t="s">
-        <v>933</v>
-      </c>
-      <c r="F199" t="s">
-        <v>14</v>
-      </c>
-      <c r="G199">
-        <v>1990</v>
-      </c>
-      <c r="H199" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A200" t="s">
-        <v>934</v>
-      </c>
-      <c r="B200" t="s">
-        <v>935</v>
-      </c>
-      <c r="C200" t="s">
-        <v>936</v>
-      </c>
-      <c r="D200" t="s">
-        <v>937</v>
-      </c>
-      <c r="E200" t="s">
-        <v>938</v>
-      </c>
-      <c r="F200" t="s">
-        <v>14</v>
-      </c>
-      <c r="G200">
-        <v>1989</v>
-      </c>
       <c r="H200" t="s">
-        <v>969</v>
+        <v>951</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A201" t="s">
-        <v>939</v>
+      <c r="A201">
+        <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>940</v>
+        <v>225</v>
       </c>
       <c r="C201" t="s">
-        <v>941</v>
+        <v>804</v>
       </c>
       <c r="D201" t="s">
-        <v>942</v>
+        <v>227</v>
       </c>
       <c r="E201" t="s">
-        <v>943</v>
+        <v>805</v>
       </c>
       <c r="F201" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G201">
-        <v>2023</v>
+        <v>1993</v>
       </c>
       <c r="H201" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K201">
+    <sortState ref="A2:K201">
+      <sortCondition ref="H2:H201"/>
+      <sortCondition ref="B2:B201"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/SampleData/Employees/Employees.xlsx
+++ b/doc/SampleData/Employees/Employees.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tawatana\Documents\荒井克仁\デザイン・アジャイル研修\アジャイル演習\Git\OrandaYa\doc\SampleData\Employees\"/>
@@ -13,12 +13,16 @@
   </bookViews>
   <sheets>
     <sheet name="employees" sheetId="1" r:id="rId1"/>
-    <sheet name="部署" sheetId="3" r:id="rId2"/>
-    <sheet name="社員一覧" sheetId="2" r:id="rId3"/>
+    <sheet name="employees_small" sheetId="5" r:id="rId2"/>
+    <sheet name="部署" sheetId="3" r:id="rId3"/>
+    <sheet name="社員一覧" sheetId="2" r:id="rId4"/>
+    <sheet name="使っている技術やタグ" sheetId="4" r:id="rId5"/>
+    <sheet name="乱数用" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">employees!$A$1:$K$201</definedName>
-    <definedName name="personal_infomation" localSheetId="2">社員一覧!$A$1:$G$201</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">employees!$A$1:$L$201</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">employees_small!$A$1:$L$35</definedName>
+    <definedName name="personal_infomation" localSheetId="3">社員一覧!$A$1:$G$201</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -48,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2643" uniqueCount="1000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3070" uniqueCount="1021">
   <si>
     <t>入社年</t>
     <rPh sb="0" eb="2">
@@ -3200,16 +3204,93 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>biography</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>bookAlready</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>comment</t>
+    <t>"#インフラ"</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>biography</t>
+    <t>"#AWS"</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"#C言語"</t>
+    <rPh sb="3" eb="5">
+      <t>ゲンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"#DB"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"#RPA"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"#Java"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"#JavaScript"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"##C"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"#Lisp"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"#Webアプリケーション"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>["#DB","#Java"]</t>
+  </si>
+  <si>
+    <t>["#Webアプリケーション","#RPA"]</t>
+  </si>
+  <si>
+    <t>["#C言語","#DB"]</t>
+  </si>
+  <si>
+    <t>["#JavaScript","#Lisp"]</t>
+  </si>
+  <si>
+    <t>["#RPA","#JavaScript"]</t>
+  </si>
+  <si>
+    <t>["#Java","##C"]</t>
+  </si>
+  <si>
+    <t>["#インフラ","#C言語"]</t>
+  </si>
+  <si>
+    <t>["##C","#インフラ"]</t>
+  </si>
+  <si>
+    <t>["#AWS","#Webアプリケーション"]</t>
+  </si>
+  <si>
+    <t>["#Lisp","#AWS"]</t>
   </si>
 </sst>
 </file>
@@ -3546,9 +3627,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K201"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:L201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B178" workbookViewId="0">
+      <selection sqref="A1:L201"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
@@ -3558,9 +3642,12 @@
     <col min="4" max="4" width="13.5625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.9375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.0625" customWidth="1"/>
+    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A1" t="s">
         <v>989</v>
       </c>
@@ -3586,16 +3673,19 @@
         <v>996</v>
       </c>
       <c r="I1" t="s">
+        <v>998</v>
+      </c>
+      <c r="J1" t="s">
         <v>999</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="L1" t="s">
         <v>997</v>
       </c>
-      <c r="K1" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.7">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3620,8 +3710,11 @@
       <c r="H2" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="J2" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3646,8 +3739,11 @@
       <c r="H3" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="J3" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3672,8 +3768,11 @@
       <c r="H4" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="J4" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3698,8 +3797,11 @@
       <c r="H5" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="J5" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3724,8 +3826,11 @@
       <c r="H6" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="J6" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3750,8 +3855,11 @@
       <c r="H7" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="J7" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3776,8 +3884,11 @@
       <c r="H8" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="J8" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3802,8 +3913,11 @@
       <c r="H9" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="J9" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3828,8 +3942,11 @@
       <c r="H10" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="J10" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3854,8 +3971,11 @@
       <c r="H11" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="J11" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3880,8 +4000,11 @@
       <c r="H12" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="J12" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3906,8 +4029,11 @@
       <c r="H13" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="J13" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3932,8 +4058,11 @@
       <c r="H14" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="J14" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3958,8 +4087,11 @@
       <c r="H15" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="J15" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3984,8 +4116,11 @@
       <c r="H16" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J16" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4010,8 +4145,11 @@
       <c r="H17" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J17" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4036,8 +4174,11 @@
       <c r="H18" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J18" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4062,8 +4203,11 @@
       <c r="H19" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J19" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4088,8 +4232,11 @@
       <c r="H20" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J20" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4114,8 +4261,11 @@
       <c r="H21" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J21" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4140,8 +4290,11 @@
       <c r="H22" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J22" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4166,8 +4319,11 @@
       <c r="H23" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J23" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4192,8 +4348,11 @@
       <c r="H24" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J24" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4218,8 +4377,11 @@
       <c r="H25" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J25" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4244,8 +4406,11 @@
       <c r="H26" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J26" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4270,8 +4435,11 @@
       <c r="H27" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J27" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4296,8 +4464,11 @@
       <c r="H28" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J28" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4322,8 +4493,11 @@
       <c r="H29" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J29" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4348,8 +4522,11 @@
       <c r="H30" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J30" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4374,8 +4551,11 @@
       <c r="H31" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J31" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4400,8 +4580,11 @@
       <c r="H32" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J32" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4426,8 +4609,11 @@
       <c r="H33" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J33" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4452,8 +4638,11 @@
       <c r="H34" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J34" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4478,8 +4667,11 @@
       <c r="H35" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J35" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4504,8 +4696,11 @@
       <c r="H36" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J36" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4530,8 +4725,11 @@
       <c r="H37" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J37" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4556,8 +4754,11 @@
       <c r="H38" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J38" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4582,8 +4783,11 @@
       <c r="H39" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J39" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4608,8 +4812,11 @@
       <c r="H40" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J40" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4634,8 +4841,11 @@
       <c r="H41" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J41" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4660,8 +4870,11 @@
       <c r="H42" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J42" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4686,8 +4899,11 @@
       <c r="H43" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J43" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4712,8 +4928,11 @@
       <c r="H44" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J44" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4738,8 +4957,11 @@
       <c r="H45" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J45" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4764,8 +4986,11 @@
       <c r="H46" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J46" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4790,8 +5015,11 @@
       <c r="H47" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J47" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4816,8 +5044,11 @@
       <c r="H48" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J48" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4842,8 +5073,11 @@
       <c r="H49" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J49" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4868,8 +5102,11 @@
       <c r="H50" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J50" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4894,8 +5131,11 @@
       <c r="H51" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J51" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4920,8 +5160,11 @@
       <c r="H52" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J52" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4946,8 +5189,11 @@
       <c r="H53" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J53" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4972,8 +5218,11 @@
       <c r="H54" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J54" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4998,8 +5247,11 @@
       <c r="H55" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J55" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5024,8 +5276,11 @@
       <c r="H56" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J56" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5050,8 +5305,11 @@
       <c r="H57" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J57" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5076,8 +5334,11 @@
       <c r="H58" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J58" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5102,8 +5363,11 @@
       <c r="H59" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J59" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5128,8 +5392,11 @@
       <c r="H60" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J60" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5154,8 +5421,11 @@
       <c r="H61" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J61" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5180,8 +5450,11 @@
       <c r="H62" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J62" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5206,8 +5479,11 @@
       <c r="H63" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J63" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5232,8 +5508,11 @@
       <c r="H64" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J64" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5258,8 +5537,11 @@
       <c r="H65" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J65" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5284,8 +5566,11 @@
       <c r="H66" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J66" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5310,8 +5595,11 @@
       <c r="H67" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J67" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5336,8 +5624,11 @@
       <c r="H68" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J68" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5362,8 +5653,11 @@
       <c r="H69" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J69" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5388,8 +5682,11 @@
       <c r="H70" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J70" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5414,8 +5711,11 @@
       <c r="H71" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J71" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5440,8 +5740,11 @@
       <c r="H72" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J72" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5466,8 +5769,11 @@
       <c r="H73" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J73" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5492,8 +5798,11 @@
       <c r="H74" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J74" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5518,8 +5827,11 @@
       <c r="H75" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J75" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5544,8 +5856,11 @@
       <c r="H76" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J76" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5570,8 +5885,11 @@
       <c r="H77" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J77" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5596,8 +5914,11 @@
       <c r="H78" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J78" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5622,8 +5943,11 @@
       <c r="H79" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J79" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5648,8 +5972,11 @@
       <c r="H80" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J80" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5674,8 +6001,11 @@
       <c r="H81" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J81" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5700,8 +6030,11 @@
       <c r="H82" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J82" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5726,8 +6059,11 @@
       <c r="H83" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J83" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5752,8 +6088,11 @@
       <c r="H84" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J84" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5778,8 +6117,11 @@
       <c r="H85" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J85" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5804,8 +6146,11 @@
       <c r="H86" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J86" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5830,8 +6175,11 @@
       <c r="H87" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J87" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5856,8 +6204,11 @@
       <c r="H88" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J88" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5882,8 +6233,11 @@
       <c r="H89" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J89" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5908,8 +6262,11 @@
       <c r="H90" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J90" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5934,8 +6291,11 @@
       <c r="H91" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J91" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5960,8 +6320,11 @@
       <c r="H92" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J92" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5986,8 +6349,11 @@
       <c r="H93" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J93" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6012,8 +6378,11 @@
       <c r="H94" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J94" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6038,8 +6407,11 @@
       <c r="H95" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J95" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6064,8 +6436,11 @@
       <c r="H96" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J96" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6090,8 +6465,11 @@
       <c r="H97" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J97" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6116,8 +6494,11 @@
       <c r="H98" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J98" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6142,8 +6523,11 @@
       <c r="H99" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J99" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6168,8 +6552,11 @@
       <c r="H100" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J100" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6194,8 +6581,11 @@
       <c r="H101" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J101" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A102">
         <v>101</v>
       </c>
@@ -6220,8 +6610,11 @@
       <c r="H102" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J102" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A103">
         <v>102</v>
       </c>
@@ -6246,8 +6639,11 @@
       <c r="H103" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J103" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6272,8 +6668,11 @@
       <c r="H104" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J104" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A105">
         <v>104</v>
       </c>
@@ -6298,8 +6697,11 @@
       <c r="H105" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J105" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A106">
         <v>105</v>
       </c>
@@ -6324,8 +6726,11 @@
       <c r="H106" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J106" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A107">
         <v>106</v>
       </c>
@@ -6350,8 +6755,11 @@
       <c r="H107" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J107" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A108">
         <v>107</v>
       </c>
@@ -6376,8 +6784,11 @@
       <c r="H108" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J108" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A109">
         <v>108</v>
       </c>
@@ -6402,8 +6813,11 @@
       <c r="H109" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J109" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A110">
         <v>109</v>
       </c>
@@ -6428,8 +6842,11 @@
       <c r="H110" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J110" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A111">
         <v>110</v>
       </c>
@@ -6454,8 +6871,11 @@
       <c r="H111" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J111" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A112">
         <v>111</v>
       </c>
@@ -6480,8 +6900,11 @@
       <c r="H112" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J112" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A113">
         <v>112</v>
       </c>
@@ -6506,8 +6929,11 @@
       <c r="H113" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J113" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A114">
         <v>113</v>
       </c>
@@ -6532,8 +6958,11 @@
       <c r="H114" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J114" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A115">
         <v>114</v>
       </c>
@@ -6558,8 +6987,11 @@
       <c r="H115" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J115" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A116">
         <v>115</v>
       </c>
@@ -6584,8 +7016,11 @@
       <c r="H116" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J116" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A117">
         <v>116</v>
       </c>
@@ -6610,8 +7045,11 @@
       <c r="H117" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J117" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A118">
         <v>117</v>
       </c>
@@ -6636,8 +7074,11 @@
       <c r="H118" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J118" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A119">
         <v>118</v>
       </c>
@@ -6662,8 +7103,11 @@
       <c r="H119" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J119" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6688,8 +7132,11 @@
       <c r="H120" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J120" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A121">
         <v>120</v>
       </c>
@@ -6714,8 +7161,11 @@
       <c r="H121" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J121" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A122">
         <v>121</v>
       </c>
@@ -6740,8 +7190,11 @@
       <c r="H122" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J122" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A123">
         <v>122</v>
       </c>
@@ -6766,8 +7219,11 @@
       <c r="H123" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J123" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A124">
         <v>123</v>
       </c>
@@ -6792,8 +7248,11 @@
       <c r="H124" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J124" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A125">
         <v>124</v>
       </c>
@@ -6818,8 +7277,11 @@
       <c r="H125" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J125" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A126">
         <v>125</v>
       </c>
@@ -6844,8 +7306,11 @@
       <c r="H126" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J126" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A127">
         <v>126</v>
       </c>
@@ -6870,8 +7335,11 @@
       <c r="H127" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J127" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A128">
         <v>127</v>
       </c>
@@ -6896,8 +7364,11 @@
       <c r="H128" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J128" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A129">
         <v>128</v>
       </c>
@@ -6922,8 +7393,11 @@
       <c r="H129" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J129" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A130">
         <v>129</v>
       </c>
@@ -6948,8 +7422,11 @@
       <c r="H130" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J130" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A131">
         <v>130</v>
       </c>
@@ -6974,8 +7451,11 @@
       <c r="H131" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J131" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A132">
         <v>131</v>
       </c>
@@ -7000,8 +7480,11 @@
       <c r="H132" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J132" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A133">
         <v>132</v>
       </c>
@@ -7026,8 +7509,11 @@
       <c r="H133" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J133" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A134">
         <v>133</v>
       </c>
@@ -7052,8 +7538,11 @@
       <c r="H134" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J134" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A135">
         <v>134</v>
       </c>
@@ -7078,8 +7567,11 @@
       <c r="H135" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J135" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A136">
         <v>135</v>
       </c>
@@ -7104,8 +7596,11 @@
       <c r="H136" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J136" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A137">
         <v>136</v>
       </c>
@@ -7130,8 +7625,11 @@
       <c r="H137" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J137" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A138">
         <v>137</v>
       </c>
@@ -7156,8 +7654,11 @@
       <c r="H138" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J138" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A139">
         <v>138</v>
       </c>
@@ -7182,8 +7683,11 @@
       <c r="H139" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J139" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A140">
         <v>139</v>
       </c>
@@ -7208,8 +7712,11 @@
       <c r="H140" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J140" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A141">
         <v>140</v>
       </c>
@@ -7234,8 +7741,11 @@
       <c r="H141" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J141" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A142">
         <v>141</v>
       </c>
@@ -7260,8 +7770,11 @@
       <c r="H142" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J142" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A143">
         <v>142</v>
       </c>
@@ -7286,8 +7799,11 @@
       <c r="H143" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J143" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A144">
         <v>143</v>
       </c>
@@ -7312,8 +7828,11 @@
       <c r="H144" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J144" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A145">
         <v>144</v>
       </c>
@@ -7338,8 +7857,11 @@
       <c r="H145" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J145" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A146">
         <v>145</v>
       </c>
@@ -7364,8 +7886,11 @@
       <c r="H146" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J146" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A147">
         <v>146</v>
       </c>
@@ -7390,8 +7915,11 @@
       <c r="H147" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J147" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A148">
         <v>147</v>
       </c>
@@ -7416,8 +7944,11 @@
       <c r="H148" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J148" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A149">
         <v>148</v>
       </c>
@@ -7442,8 +7973,11 @@
       <c r="H149" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J149" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A150">
         <v>149</v>
       </c>
@@ -7468,8 +8002,11 @@
       <c r="H150" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J150" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A151">
         <v>150</v>
       </c>
@@ -7494,8 +8031,11 @@
       <c r="H151" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J151" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A152">
         <v>151</v>
       </c>
@@ -7520,8 +8060,11 @@
       <c r="H152" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J152" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A153">
         <v>152</v>
       </c>
@@ -7546,8 +8089,11 @@
       <c r="H153" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J153" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A154">
         <v>153</v>
       </c>
@@ -7572,8 +8118,11 @@
       <c r="H154" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J154" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A155">
         <v>154</v>
       </c>
@@ -7598,8 +8147,11 @@
       <c r="H155" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J155" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A156">
         <v>155</v>
       </c>
@@ -7624,8 +8176,11 @@
       <c r="H156" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J156" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A157">
         <v>156</v>
       </c>
@@ -7650,8 +8205,11 @@
       <c r="H157" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J157" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A158">
         <v>157</v>
       </c>
@@ -7676,8 +8234,11 @@
       <c r="H158" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J158" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A159">
         <v>158</v>
       </c>
@@ -7702,8 +8263,11 @@
       <c r="H159" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J159" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A160">
         <v>159</v>
       </c>
@@ -7728,8 +8292,11 @@
       <c r="H160" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J160" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A161">
         <v>160</v>
       </c>
@@ -7754,8 +8321,11 @@
       <c r="H161" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J161" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A162">
         <v>161</v>
       </c>
@@ -7780,8 +8350,11 @@
       <c r="H162" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J162" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A163">
         <v>162</v>
       </c>
@@ -7806,8 +8379,11 @@
       <c r="H163" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J163" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A164">
         <v>163</v>
       </c>
@@ -7832,8 +8408,11 @@
       <c r="H164" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J164" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A165">
         <v>164</v>
       </c>
@@ -7858,8 +8437,11 @@
       <c r="H165" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J165" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A166">
         <v>165</v>
       </c>
@@ -7884,8 +8466,11 @@
       <c r="H166" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J166" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A167">
         <v>166</v>
       </c>
@@ -7910,8 +8495,11 @@
       <c r="H167" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J167" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A168">
         <v>167</v>
       </c>
@@ -7936,8 +8524,11 @@
       <c r="H168" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J168" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A169">
         <v>168</v>
       </c>
@@ -7962,8 +8553,11 @@
       <c r="H169" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J169" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A170">
         <v>169</v>
       </c>
@@ -7988,8 +8582,11 @@
       <c r="H170" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J170" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A171">
         <v>170</v>
       </c>
@@ -8014,8 +8611,11 @@
       <c r="H171" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J171" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A172">
         <v>171</v>
       </c>
@@ -8040,8 +8640,11 @@
       <c r="H172" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J172" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A173">
         <v>172</v>
       </c>
@@ -8066,8 +8669,11 @@
       <c r="H173" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J173" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A174">
         <v>173</v>
       </c>
@@ -8092,8 +8698,11 @@
       <c r="H174" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J174" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A175">
         <v>174</v>
       </c>
@@ -8118,8 +8727,11 @@
       <c r="H175" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J175" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A176">
         <v>175</v>
       </c>
@@ -8144,8 +8756,11 @@
       <c r="H176" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J176" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A177">
         <v>176</v>
       </c>
@@ -8170,8 +8785,11 @@
       <c r="H177" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J177" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A178">
         <v>177</v>
       </c>
@@ -8196,8 +8814,11 @@
       <c r="H178" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J178" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A179">
         <v>178</v>
       </c>
@@ -8222,8 +8843,11 @@
       <c r="H179" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J179" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A180">
         <v>179</v>
       </c>
@@ -8248,8 +8872,11 @@
       <c r="H180" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J180" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A181">
         <v>180</v>
       </c>
@@ -8274,8 +8901,11 @@
       <c r="H181" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J181" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A182">
         <v>181</v>
       </c>
@@ -8300,8 +8930,11 @@
       <c r="H182" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J182" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A183">
         <v>182</v>
       </c>
@@ -8326,8 +8959,11 @@
       <c r="H183" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J183" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A184">
         <v>183</v>
       </c>
@@ -8352,8 +8988,11 @@
       <c r="H184" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J184" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A185">
         <v>184</v>
       </c>
@@ -8378,8 +9017,11 @@
       <c r="H185" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J185" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A186">
         <v>185</v>
       </c>
@@ -8404,8 +9046,11 @@
       <c r="H186" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J186" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A187">
         <v>186</v>
       </c>
@@ -8430,8 +9075,11 @@
       <c r="H187" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J187" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A188">
         <v>187</v>
       </c>
@@ -8456,8 +9104,11 @@
       <c r="H188" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J188" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A189">
         <v>188</v>
       </c>
@@ -8482,8 +9133,11 @@
       <c r="H189" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J189" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A190">
         <v>189</v>
       </c>
@@ -8508,8 +9162,11 @@
       <c r="H190" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J190" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A191">
         <v>190</v>
       </c>
@@ -8534,8 +9191,11 @@
       <c r="H191" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J191" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A192">
         <v>191</v>
       </c>
@@ -8560,8 +9220,11 @@
       <c r="H192" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J192" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A193">
         <v>192</v>
       </c>
@@ -8586,8 +9249,11 @@
       <c r="H193" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J193" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A194">
         <v>193</v>
       </c>
@@ -8612,8 +9278,11 @@
       <c r="H194" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J194" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A195">
         <v>194</v>
       </c>
@@ -8638,8 +9307,11 @@
       <c r="H195" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J195" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A196">
         <v>195</v>
       </c>
@@ -8664,8 +9336,11 @@
       <c r="H196" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J196" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A197">
         <v>196</v>
       </c>
@@ -8690,8 +9365,11 @@
       <c r="H197" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J197" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A198">
         <v>197</v>
       </c>
@@ -8716,8 +9394,11 @@
       <c r="H198" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J198" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A199">
         <v>198</v>
       </c>
@@ -8742,8 +9423,11 @@
       <c r="H199" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J199" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A200">
         <v>199</v>
       </c>
@@ -8768,8 +9452,11 @@
       <c r="H200" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="J200" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A201">
         <v>200</v>
       </c>
@@ -8794,9 +9481,12 @@
       <c r="H201" t="s">
         <v>951</v>
       </c>
+      <c r="J201" t="s">
+        <v>1014</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K201">
+  <autoFilter ref="A1:L201">
     <sortState ref="A2:K201">
       <sortCondition ref="H2:H201"/>
       <sortCondition ref="B2:B201"/>
@@ -8810,10 +9500,966 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:L35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="1" max="1" width="10.9375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.9375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.3125" customWidth="1"/>
+    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A1" t="s">
+        <v>989</v>
+      </c>
+      <c r="B1" t="s">
+        <v>990</v>
+      </c>
+      <c r="C1" t="s">
+        <v>991</v>
+      </c>
+      <c r="D1" t="s">
+        <v>992</v>
+      </c>
+      <c r="E1" t="s">
+        <v>993</v>
+      </c>
+      <c r="F1" t="s">
+        <v>994</v>
+      </c>
+      <c r="G1" t="s">
+        <v>995</v>
+      </c>
+      <c r="H1" t="s">
+        <v>996</v>
+      </c>
+      <c r="I1" t="s">
+        <v>998</v>
+      </c>
+      <c r="J1" t="s">
+        <v>999</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="L1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2">
+        <v>1988</v>
+      </c>
+      <c r="H2" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>676</v>
+      </c>
+      <c r="C3" t="s">
+        <v>677</v>
+      </c>
+      <c r="D3" t="s">
+        <v>678</v>
+      </c>
+      <c r="E3" t="s">
+        <v>679</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>2001</v>
+      </c>
+      <c r="H3" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>850</v>
+      </c>
+      <c r="C4" t="s">
+        <v>851</v>
+      </c>
+      <c r="D4" t="s">
+        <v>852</v>
+      </c>
+      <c r="E4" t="s">
+        <v>853</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4">
+        <v>1980</v>
+      </c>
+      <c r="H4" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>526</v>
+      </c>
+      <c r="C5" t="s">
+        <v>527</v>
+      </c>
+      <c r="D5" t="s">
+        <v>528</v>
+      </c>
+      <c r="E5" t="s">
+        <v>529</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>1984</v>
+      </c>
+      <c r="H5" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>690</v>
+      </c>
+      <c r="C6" t="s">
+        <v>691</v>
+      </c>
+      <c r="D6" t="s">
+        <v>692</v>
+      </c>
+      <c r="E6" t="s">
+        <v>693</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6">
+        <v>2017</v>
+      </c>
+      <c r="H6" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>635</v>
+      </c>
+      <c r="C7" t="s">
+        <v>636</v>
+      </c>
+      <c r="D7" t="s">
+        <v>637</v>
+      </c>
+      <c r="E7" t="s">
+        <v>638</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <v>1990</v>
+      </c>
+      <c r="H7" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8">
+        <v>1977</v>
+      </c>
+      <c r="H8" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>480</v>
+      </c>
+      <c r="C9" t="s">
+        <v>481</v>
+      </c>
+      <c r="D9" t="s">
+        <v>482</v>
+      </c>
+      <c r="E9" t="s">
+        <v>483</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9">
+        <v>1978</v>
+      </c>
+      <c r="H9" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>445</v>
+      </c>
+      <c r="C10" t="s">
+        <v>446</v>
+      </c>
+      <c r="D10" t="s">
+        <v>447</v>
+      </c>
+      <c r="E10" t="s">
+        <v>448</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10">
+        <v>2010</v>
+      </c>
+      <c r="H10" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>465</v>
+      </c>
+      <c r="C11" t="s">
+        <v>466</v>
+      </c>
+      <c r="D11" t="s">
+        <v>467</v>
+      </c>
+      <c r="E11" t="s">
+        <v>468</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11">
+        <v>1982</v>
+      </c>
+      <c r="H11" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>791</v>
+      </c>
+      <c r="C12" t="s">
+        <v>844</v>
+      </c>
+      <c r="D12" t="s">
+        <v>793</v>
+      </c>
+      <c r="E12" t="s">
+        <v>448</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12">
+        <v>1986</v>
+      </c>
+      <c r="H12" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>927</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>928</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13">
+        <v>2005</v>
+      </c>
+      <c r="H13" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>762</v>
+      </c>
+      <c r="C14" t="s">
+        <v>763</v>
+      </c>
+      <c r="D14" t="s">
+        <v>764</v>
+      </c>
+      <c r="E14" t="s">
+        <v>716</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14">
+        <v>2014</v>
+      </c>
+      <c r="H14" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>391</v>
+      </c>
+      <c r="C15" t="s">
+        <v>392</v>
+      </c>
+      <c r="D15" t="s">
+        <v>393</v>
+      </c>
+      <c r="E15" t="s">
+        <v>394</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15">
+        <v>2006</v>
+      </c>
+      <c r="H15" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C16" t="s">
+        <v>291</v>
+      </c>
+      <c r="D16" t="s">
+        <v>292</v>
+      </c>
+      <c r="E16" t="s">
+        <v>293</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16">
+        <v>2004</v>
+      </c>
+      <c r="H16" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>243</v>
+      </c>
+      <c r="C17" t="s">
+        <v>244</v>
+      </c>
+      <c r="D17" t="s">
+        <v>245</v>
+      </c>
+      <c r="E17" t="s">
+        <v>246</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17">
+        <v>2020</v>
+      </c>
+      <c r="H17" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>661</v>
+      </c>
+      <c r="C18" t="s">
+        <v>662</v>
+      </c>
+      <c r="D18" t="s">
+        <v>663</v>
+      </c>
+      <c r="E18" t="s">
+        <v>664</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18">
+        <v>1982</v>
+      </c>
+      <c r="H18" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19">
+        <v>1996</v>
+      </c>
+      <c r="H19" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>581</v>
+      </c>
+      <c r="C20" t="s">
+        <v>582</v>
+      </c>
+      <c r="D20" t="s">
+        <v>583</v>
+      </c>
+      <c r="E20" t="s">
+        <v>584</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20">
+        <v>2015</v>
+      </c>
+      <c r="H20" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>260</v>
+      </c>
+      <c r="C21" t="s">
+        <v>261</v>
+      </c>
+      <c r="D21" t="s">
+        <v>262</v>
+      </c>
+      <c r="E21" t="s">
+        <v>263</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21">
+        <v>1991</v>
+      </c>
+      <c r="H21" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" t="s">
+        <v>172</v>
+      </c>
+      <c r="D22" t="s">
+        <v>173</v>
+      </c>
+      <c r="E22" t="s">
+        <v>174</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22">
+        <v>1989</v>
+      </c>
+      <c r="H22" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>504</v>
+      </c>
+      <c r="C23" t="s">
+        <v>505</v>
+      </c>
+      <c r="D23" t="s">
+        <v>506</v>
+      </c>
+      <c r="E23" t="s">
+        <v>507</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23">
+        <v>2015</v>
+      </c>
+      <c r="H23" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>309</v>
+      </c>
+      <c r="C24" t="s">
+        <v>310</v>
+      </c>
+      <c r="D24" t="s">
+        <v>311</v>
+      </c>
+      <c r="E24" t="s">
+        <v>312</v>
+      </c>
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24">
+        <v>1987</v>
+      </c>
+      <c r="H24" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>372</v>
+      </c>
+      <c r="C25" t="s">
+        <v>373</v>
+      </c>
+      <c r="D25" t="s">
+        <v>374</v>
+      </c>
+      <c r="E25" t="s">
+        <v>375</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25">
+        <v>2022</v>
+      </c>
+      <c r="H25" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>860</v>
+      </c>
+      <c r="C26" t="s">
+        <v>861</v>
+      </c>
+      <c r="D26" t="s">
+        <v>311</v>
+      </c>
+      <c r="E26" t="s">
+        <v>862</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26">
+        <v>1979</v>
+      </c>
+      <c r="H26" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>325</v>
+      </c>
+      <c r="C27" t="s">
+        <v>326</v>
+      </c>
+      <c r="D27" t="s">
+        <v>327</v>
+      </c>
+      <c r="E27" t="s">
+        <v>328</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27">
+        <v>2023</v>
+      </c>
+      <c r="H27" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>220</v>
+      </c>
+      <c r="C28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D28" t="s">
+        <v>222</v>
+      </c>
+      <c r="E28" t="s">
+        <v>223</v>
+      </c>
+      <c r="F28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28">
+        <v>1994</v>
+      </c>
+      <c r="H28" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>490</v>
+      </c>
+      <c r="C29" t="s">
+        <v>491</v>
+      </c>
+      <c r="D29" t="s">
+        <v>492</v>
+      </c>
+      <c r="E29" t="s">
+        <v>375</v>
+      </c>
+      <c r="F29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29">
+        <v>1991</v>
+      </c>
+      <c r="H29" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>718</v>
+      </c>
+      <c r="C30" t="s">
+        <v>719</v>
+      </c>
+      <c r="D30" t="s">
+        <v>720</v>
+      </c>
+      <c r="E30" t="s">
+        <v>721</v>
+      </c>
+      <c r="F30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30">
+        <v>2004</v>
+      </c>
+      <c r="H30" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>885</v>
+      </c>
+      <c r="C31" t="s">
+        <v>886</v>
+      </c>
+      <c r="D31" t="s">
+        <v>887</v>
+      </c>
+      <c r="E31" t="s">
+        <v>888</v>
+      </c>
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31">
+        <v>2018</v>
+      </c>
+      <c r="H31" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>342</v>
+      </c>
+      <c r="C32" t="s">
+        <v>343</v>
+      </c>
+      <c r="D32" t="s">
+        <v>344</v>
+      </c>
+      <c r="E32" t="s">
+        <v>345</v>
+      </c>
+      <c r="F32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32">
+        <v>2004</v>
+      </c>
+      <c r="H32" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>661</v>
+      </c>
+      <c r="C33" t="s">
+        <v>796</v>
+      </c>
+      <c r="D33" t="s">
+        <v>663</v>
+      </c>
+      <c r="E33" t="s">
+        <v>797</v>
+      </c>
+      <c r="F33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33">
+        <v>1996</v>
+      </c>
+      <c r="H33" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>709</v>
+      </c>
+      <c r="C34" t="s">
+        <v>710</v>
+      </c>
+      <c r="D34" t="s">
+        <v>711</v>
+      </c>
+      <c r="E34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34">
+        <v>2011</v>
+      </c>
+      <c r="H34" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>329</v>
+      </c>
+      <c r="C35" t="s">
+        <v>330</v>
+      </c>
+      <c r="D35" t="s">
+        <v>331</v>
+      </c>
+      <c r="E35" t="s">
+        <v>332</v>
+      </c>
+      <c r="F35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35">
+        <v>2021</v>
+      </c>
+      <c r="H35" t="s">
+        <v>959</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:L35">
+    <sortState ref="A2:K201">
+      <sortCondition ref="H2:H201"/>
+      <sortCondition ref="B2:B201"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -9011,12 +10657,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F201"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -14458,4 +16105,2129 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="2" max="2" width="18.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B201"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A1">
+        <f ca="1">RANDBETWEEN(1,10)</f>
+        <v>5</v>
+      </c>
+      <c r="B1">
+        <f ca="1">MOD(A1+ROUNDDOWN(1,9),10)+1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A2">
+        <f ca="1">RANDBETWEEN(1,10)</f>
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:B65" ca="1" si="0">MOD(A2+ROUNDDOWN(1,9),10)+1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A3">
+        <f t="shared" ref="A3:A66" ca="1" si="1">RANDBETWEEN(1,10)</f>
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A4">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A5">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A6">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A7">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A8">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A9">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A10">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A11">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A12">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A13">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A14">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A15">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A16">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A17">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A18">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A19">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A20">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A21">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A22">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A23">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A24">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A25">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A26">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A27">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A28">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A29">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A30">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A31">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A32">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A33">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A34">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A35">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A36">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A37">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A38">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A39">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A40">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A41">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A42">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A43">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A44">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A45">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A46">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A47">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A48">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A49">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A50">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A51">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A52">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A53">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A54">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A55">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A56">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A57">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A58">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A59">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A60">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A61">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A62">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B62">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A63">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B63">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A64">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B64">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A65">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B65">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A66">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ref="B66:B129" ca="1" si="2">MOD(A66+ROUNDDOWN(1,9),10)+1</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A67">
+        <f t="shared" ref="A67:A130" ca="1" si="3">RANDBETWEEN(1,10)</f>
+        <v>8</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A68">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A69">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="B69">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A70">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="B70">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A71">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="B71">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A72">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A73">
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="B73">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A74">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="B74">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A75">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="B75">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A76">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B76">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A77">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="B77">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A78">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="B78">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A79">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="B79">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A80">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="B80">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A81">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="B81">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A82">
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="B82">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A83">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="B83">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A84">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="B84">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A85">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B85">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A86">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="B86">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A87">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="B87">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A88">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="B88">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A89">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B89">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A90">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="B90">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A91">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="B91">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A92">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="B92">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A93">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="B93">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A94">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B94">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A95">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B95">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A96">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="B96">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A97">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="B97">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A98">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B98">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A99">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B99">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A100">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="B100">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A101">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="B101">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A102">
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="B102">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A103">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B103">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A104">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="B104">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A105">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="B105">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A106">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="B106">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A107">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="B107">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A108">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="B108">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A109">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="B109">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A110">
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="B110">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A111">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="B111">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A112">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="B112">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A113">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B113">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A114">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="B114">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A115">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="B115">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A116">
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="B116">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A117">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B117">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A118">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="B118">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A119">
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="B119">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A120">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B120">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A121">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="B121">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A122">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="B122">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A123">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="B123">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A124">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B124">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A125">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="B125">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A126">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="B126">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A127">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="B127">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A128">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="B128">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A129">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="B129">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A130">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="B130">
+        <f t="shared" ref="B130:B193" ca="1" si="4">MOD(A130+ROUNDDOWN(1,9),10)+1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A131">
+        <f t="shared" ref="A131:A194" ca="1" si="5">RANDBETWEEN(1,10)</f>
+        <v>4</v>
+      </c>
+      <c r="B131">
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A132">
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="B132">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A133">
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="B133">
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A134">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="B134">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A135">
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="B135">
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A136">
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="B136">
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A137">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="B137">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A138">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B138">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A139">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="B139">
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A140">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="B140">
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A141">
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="B141">
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A142">
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="B142">
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A143">
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="B143">
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A144">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="B144">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A145">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B145">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A146">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B146">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A147">
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="B147">
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A148">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="B148">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A149">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="B149">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A150">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="B150">
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A151">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="B151">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A152">
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="B152">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A153">
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="B153">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A154">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="B154">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A155">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B155">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A156">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="B156">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A157">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="B157">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A158">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B158">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A159">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="B159">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A160">
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="B160">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A161">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B161">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A162">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="B162">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A163">
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="B163">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A164">
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="B164">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A165">
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="B165">
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A166">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="B166">
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A167">
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="B167">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A168">
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="B168">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A169">
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="B169">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A170">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="B170">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A171">
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="B171">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A172">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="B172">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A173">
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="B173">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A174">
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="B174">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A175">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="B175">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A176">
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="B176">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A177">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="B177">
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A178">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="B178">
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A179">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="B179">
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A180">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="B180">
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A181">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B181">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A182">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="B182">
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A183">
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="B183">
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A184">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B184">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A185">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="B185">
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A186">
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="B186">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A187">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="B187">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A188">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="B188">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A189">
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="B189">
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A190">
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="B190">
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A191">
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="B191">
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A192">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="B192">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A193">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="B193">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A194">
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="B194">
+        <f t="shared" ref="B194:B201" ca="1" si="6">MOD(A194+ROUNDDOWN(1,9),10)+1</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A195">
+        <f t="shared" ref="A195:A201" ca="1" si="7">RANDBETWEEN(1,10)</f>
+        <v>9</v>
+      </c>
+      <c r="B195">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A196">
+        <f t="shared" ca="1" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="B196">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A197">
+        <f t="shared" ca="1" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="B197">
+        <f t="shared" ca="1" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A198">
+        <f t="shared" ca="1" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="B198">
+        <f t="shared" ca="1" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A199">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="B199">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A200">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="B200">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A201">
+        <f t="shared" ca="1" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="B201">
+        <f t="shared" ca="1" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/SampleData/Employees/Employees.xlsx
+++ b/doc/SampleData/Employees/Employees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hayashi.yuki\OrandaYa\doc\SampleData\Employees\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB0B4E9-4758-4994-81E2-02D97D2CAA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912977F5-C72B-4964-8EE6-D4A1F1942C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3374,10 +3374,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>["978-4774181882","978-4798167077", "978-4295007807", "1", "2", "3", "4", "5"]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>["978-4798157696", "978-4295012559", "978-4798038520", "6", "7", "8"]</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3438,6 +3434,10 @@
   </si>
   <si>
     <t>["978-4798158464","978-4863543843", "978-4295600428"]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>["978-4774181882","978-4798167077", "978-4295007807", "978-4798030142", "978-4295012788", "978-4774104324", "4", "5"]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3779,7 +3779,7 @@
   <dimension ref="A1:O203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3876,7 +3876,7 @@
         <v>1030</v>
       </c>
       <c r="M2" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="N2" t="s">
         <v>1023</v>
@@ -3990,7 +3990,7 @@
         <v>1036</v>
       </c>
       <c r="M5" t="s">
-        <v>1037</v>
+        <v>1052</v>
       </c>
       <c r="N5" t="s">
         <v>1023</v>
@@ -4028,7 +4028,7 @@
         <v>1033</v>
       </c>
       <c r="M6" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="N6" t="s">
         <v>1023</v>
@@ -4060,13 +4060,13 @@
         <v>945</v>
       </c>
       <c r="J7" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="K7" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="M7" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="N7" t="s">
         <v>1023</v>
@@ -4098,13 +4098,13 @@
         <v>945</v>
       </c>
       <c r="J8" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="K8" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="M8" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="N8" t="s">
         <v>1023</v>
@@ -4136,13 +4136,13 @@
         <v>945</v>
       </c>
       <c r="J9" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="K9" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M9" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="N9" t="s">
         <v>1023</v>
@@ -4177,10 +4177,10 @@
         <v>1013</v>
       </c>
       <c r="K10" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="M10" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="N10" t="s">
         <v>1023</v>
@@ -4215,10 +4215,10 @@
         <v>1012</v>
       </c>
       <c r="K11" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="M11" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="N11" t="s">
         <v>1023</v>
@@ -16469,101 +16469,101 @@
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1">
         <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1">
         <f ca="1">MOD(A1+ROUNDDOWN(1,9),10)+1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B65" ca="1" si="0">MOD(A2+ROUNDDOWN(1,9),10)+1</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <f t="shared" ref="A3:A66" ca="1" si="1">RANDBETWEEN(1,10)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -16579,11 +16579,11 @@
     <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -16599,61 +16599,61 @@
     <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -16669,161 +16669,161 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -16839,181 +16839,181 @@
     <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -17029,41 +17029,41 @@
     <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -17079,71 +17079,71 @@
     <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B66">
         <f t="shared" ref="B66:B129" ca="1" si="2">MOD(A66+ROUNDDOWN(1,9),10)+1</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <f t="shared" ref="A67:A130" ca="1" si="3">RANDBETWEEN(1,10)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B67">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -17159,61 +17159,61 @@
     <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -17229,141 +17229,141 @@
     <row r="77" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B83">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -17389,181 +17389,181 @@
     <row r="93" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B99">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B101">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B102">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B103">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B104">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B105">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B106">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B107">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B108">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B109">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B110">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -17579,181 +17579,181 @@
     <row r="112" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B112">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B113">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B114">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B115">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B116">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B117">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B118">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B119">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B120">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B121">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B122">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B123">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B124">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A125">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B125">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A126">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B126">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A127">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B127">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A128">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B128">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B129">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -17769,211 +17769,211 @@
     <row r="131" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
         <f t="shared" ref="A131:A194" ca="1" si="5">RANDBETWEEN(1,10)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B131">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B132">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B133">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B134">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A135">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B135">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A136">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B136">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A137">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B137">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A138">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B138">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A139">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B139">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B140">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B141">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A142">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B142">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A143">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B143">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A144">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B144">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A145">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B145">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A146">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B146">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A147">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B147">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A148">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B148">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A149">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B149">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A150">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B150">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A151">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B151">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -17989,281 +17989,281 @@
     <row r="153" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A153">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B153">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A154">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B154">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A155">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B155">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A156">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B156">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A157">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B157">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A158">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B158">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A159">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B159">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A160">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B160">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A161">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B161">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A162">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B162">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A163">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B163">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A164">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B164">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A165">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B165">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A166">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B166">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A167">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B167">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A168">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B168">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A169">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B169">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A170">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B170">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A171">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B171">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A172">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B172">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A173">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B173">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A174">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B174">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A175">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B175">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A176">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B176">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A177">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B177">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A178">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B178">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A179">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B179">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A180">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B180">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -18279,151 +18279,151 @@
     <row r="182" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A182">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B182">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A183">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B183">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A184">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B184">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A185">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B185">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A186">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B186">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A187">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B187">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A188">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B188">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A189">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B189">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A190">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B190">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A191">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B191">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A192">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B192">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A193">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B193">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A194">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B194">
         <f t="shared" ref="B194:B201" ca="1" si="6">MOD(A194+ROUNDDOWN(1,9),10)+1</f>
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A195">
         <f t="shared" ref="A195:A201" ca="1" si="7">RANDBETWEEN(1,10)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B195">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A196">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B196">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -18439,11 +18439,11 @@
     <row r="198" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A198">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B198">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -18459,21 +18459,21 @@
     <row r="200" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A200">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B200">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A201">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B201">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
